--- a/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>1.707142088911866</v>
       </c>
       <c r="C2">
-        <v>0.5486880580882882</v>
+        <v>0.5486880580884588</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2313983268812265</v>
+        <v>0.2313983268812052</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8804965006816374</v>
+        <v>0.8804965006816516</v>
       </c>
       <c r="H2">
-        <v>0.5888499256580033</v>
+        <v>0.5888499256579962</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5162609491674743</v>
+        <v>0.5162609491674885</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8487927111329299</v>
+        <v>0.8487927111329512</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.476715872046128</v>
+        <v>1.4767158720461</v>
       </c>
       <c r="C3">
-        <v>0.4732041679544068</v>
+        <v>0.4732041679545773</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8079810697147067</v>
+        <v>0.8079810697147209</v>
       </c>
       <c r="H3">
         <v>0.5582475110304372</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7318026110491616</v>
+        <v>0.7318026110491829</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.336486844134754</v>
+        <v>1.336486844134924</v>
       </c>
       <c r="C4">
-        <v>0.4274697210876752</v>
+        <v>0.4274697210875331</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1825887047115629</v>
+        <v>0.1825887047115842</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7660852414667261</v>
+        <v>0.766085241466719</v>
       </c>
       <c r="H4">
-        <v>0.5413111459805222</v>
+        <v>0.5413111459805364</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.403629233260034</v>
+        <v>0.4036292332600269</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6610678344531493</v>
+        <v>0.6610678344531422</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.279601172752251</v>
+        <v>1.279601172751995</v>
       </c>
       <c r="C5">
-        <v>0.4089609988980953</v>
+        <v>0.408960998898209</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1752534472802054</v>
+        <v>0.1752534472802196</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3863672716493198</v>
+        <v>0.3863672716493411</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6324783847642834</v>
+        <v>0.6324783847642621</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.270169419974479</v>
+        <v>1.270169419974451</v>
       </c>
       <c r="C6">
-        <v>0.4058946865755786</v>
+        <v>0.4058946865751238</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1740415249286116</v>
+        <v>0.1740415249286258</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.7469117916717778</v>
+        <v>0.7469117916717636</v>
       </c>
       <c r="H6">
-        <v>0.5337866451630688</v>
+        <v>0.5337866451630617</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3835058301723464</v>
+        <v>0.3835058301723606</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6277442355936245</v>
+        <v>0.6277442355936103</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.335718687408104</v>
+        <v>1.335718687408274</v>
       </c>
       <c r="C7">
-        <v>0.427219618347749</v>
+        <v>0.4272196183479195</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1824893614401404</v>
+        <v>0.1824893614401475</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.7658607314998704</v>
+        <v>0.7658607314998633</v>
       </c>
       <c r="H7">
-        <v>0.5412221504541961</v>
+        <v>0.5412221504541748</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4033960930789249</v>
+        <v>0.403396093078932</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6606813644526071</v>
+        <v>0.6606813644526</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.220755278580981</v>
+        <v>0.2207552785809739</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8549093211294192</v>
+        <v>0.8549093211294334</v>
       </c>
       <c r="H8">
-        <v>0.5778892694196713</v>
+        <v>0.5778892694196855</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.808201246956898</v>
+        <v>0.8082012469569051</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.212155972671667</v>
+        <v>2.212155972671781</v>
       </c>
       <c r="C9">
-        <v>0.7155522766017555</v>
+        <v>0.715552276601926</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>0.3004456199552905</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>1.895061171842826</v>
       </c>
       <c r="G9">
-        <v>1.053421916941019</v>
+        <v>1.053421916941048</v>
       </c>
       <c r="H9">
-        <v>0.6664181615535156</v>
+        <v>0.6664181615535227</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.654019515069933</v>
+        <v>2.654019515070104</v>
       </c>
       <c r="C10">
-        <v>0.8631548087826957</v>
+        <v>0.8631548087827241</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3630313570637043</v>
+        <v>0.3630313570637327</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.218543797378885</v>
+        <v>1.218543797378871</v>
       </c>
       <c r="H10">
         <v>0.7445714789420492</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8051956087969074</v>
+        <v>0.8051956087968719</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.338383689375121</v>
+        <v>1.338383689375135</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>2.85883544117064</v>
       </c>
       <c r="C11">
-        <v>0.9320827430284453</v>
+        <v>0.9320827430281327</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.392691487736748</v>
+        <v>0.3926914877367622</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.299057263813069</v>
+        <v>1.299057263813083</v>
       </c>
       <c r="H11">
         <v>0.7837356619576212</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8679204127292763</v>
+        <v>0.8679204127293048</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.446022224179885</v>
+        <v>1.44602222417987</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4041242295071257</v>
+        <v>0.4041242295070901</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.33043834348689</v>
+        <v>1.330438343486875</v>
       </c>
       <c r="H12">
-        <v>0.7991589139855648</v>
+        <v>0.7991589139855506</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8918951977684628</v>
+        <v>0.8918951977684344</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.487283739676926</v>
+        <v>1.487283739676911</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.920174725986556</v>
+        <v>2.920174725986726</v>
       </c>
       <c r="C13">
-        <v>0.9527888990352551</v>
+        <v>0.9527888990351414</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4016525173627628</v>
+        <v>0.4016525173627841</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236084</v>
       </c>
       <c r="G13">
-        <v>1.323638165527811</v>
+        <v>1.323638165527782</v>
       </c>
       <c r="H13">
-        <v>0.7958096141367861</v>
+        <v>0.795809614136779</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.886721279919044</v>
+        <v>0.8867212799190298</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.478373681494105</v>
+        <v>1.478373681494134</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.865256452804374</v>
+        <v>2.865256452804545</v>
       </c>
       <c r="C14">
-        <v>0.9342488985224406</v>
+        <v>0.9342488985226964</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3936278492240746</v>
+        <v>0.3936278492240604</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.301620400384024</v>
+        <v>1.301620400384039</v>
       </c>
       <c r="H14">
-        <v>0.7849922113922645</v>
+        <v>0.7849922113922574</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.449406302806082</v>
+        <v>1.449406302806096</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.831706317337421</v>
+        <v>2.831706317337364</v>
       </c>
       <c r="C15">
-        <v>0.9229341506930382</v>
+        <v>0.9229341506931803</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3887396584712164</v>
+        <v>0.3887396584712377</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,7 +924,7 @@
         <v>1.288253800691933</v>
       </c>
       <c r="H15">
-        <v>0.7784457535814937</v>
+        <v>0.7784457535814866</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.431730720151975</v>
+        <v>1.43173072015199</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.640719917837544</v>
+        <v>2.6407199178376</v>
       </c>
       <c r="C16">
-        <v>0.8586902255485427</v>
+        <v>0.8586902255483722</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.213400271458212</v>
+        <v>1.213400271458227</v>
       </c>
       <c r="H16">
         <v>0.742090736766599</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8011254014767388</v>
+        <v>0.8011254014767601</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.331414874785807</v>
+        <v>1.331414874785821</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,19 +985,19 @@
         <v>2.524604528985151</v>
       </c>
       <c r="C17">
-        <v>0.819768980988016</v>
+        <v>0.8197689809881581</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3445000854232418</v>
+        <v>0.3445000854232632</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.168940775513335</v>
+        <v>1.168940775513349</v>
       </c>
       <c r="H17">
         <v>0.7207624311920995</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7656038809892465</v>
+        <v>0.7656038809892536</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.270679760896002</v>
+        <v>1.270679760896016</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,13 +1023,13 @@
         <v>2.458169402250689</v>
       </c>
       <c r="C18">
-        <v>0.7975469411213396</v>
+        <v>0.7975469411210838</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3350510361823567</v>
+        <v>0.3350510361823993</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
@@ -1038,7 +1038,7 @@
         <v>1.143869232472312</v>
       </c>
       <c r="H18">
-        <v>0.7088300188496817</v>
+        <v>0.7088300188496746</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>2.435732881869797</v>
       </c>
       <c r="C19">
-        <v>0.790049756780121</v>
+        <v>0.7900497567799505</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3318697835292497</v>
+        <v>0.3318697835292426</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>1.135463082481394</v>
+        <v>1.135463082481408</v>
       </c>
       <c r="H19">
         <v>0.7048453745183778</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7384341142222297</v>
+        <v>0.7384341142222581</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.536928104269009</v>
+        <v>2.536928104269066</v>
       </c>
       <c r="C20">
-        <v>0.8238948530769505</v>
+        <v>0.8238948530768937</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3462576571224218</v>
+        <v>0.3462576571224361</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.27711649811225</v>
+        <v>1.277116498112207</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.881368542414123</v>
+        <v>2.88136854241418</v>
       </c>
       <c r="C21">
-        <v>0.9396857901715236</v>
+        <v>0.9396857901714384</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3959791711432317</v>
+        <v>0.395979171143189</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.308062332070747</v>
+        <v>1.308062332070733</v>
       </c>
       <c r="H21">
         <v>0.7881528297538978</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8748261022044517</v>
+        <v>0.8748261022044375</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.110365257458852</v>
+        <v>3.110365257458909</v>
       </c>
       <c r="C22">
-        <v>1.017177520245554</v>
+        <v>1.017177520245724</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4296642520131257</v>
+        <v>0.4296642520131329</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.401194337379266</v>
+        <v>1.401194337379252</v>
       </c>
       <c r="H22">
-        <v>0.8342309609302845</v>
+        <v>0.8342309609302916</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9450621440332441</v>
+        <v>0.9450621440332725</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.579018621528107</v>
+        <v>1.579018621528121</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.987750378918633</v>
+        <v>2.987750378918463</v>
       </c>
       <c r="C23">
-        <v>0.9756341498706433</v>
+        <v>0.9756341498703023</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4115660357847517</v>
+        <v>0.4115660357847446</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.350963661444851</v>
+        <v>1.350963661444865</v>
       </c>
       <c r="H23">
         <v>0.8092915776581435</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9074420525558224</v>
+        <v>0.9074420525558367</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.514075440006167</v>
+        <v>1.514075440006138</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.531355623546858</v>
+        <v>2.531355623546801</v>
       </c>
       <c r="C24">
-        <v>0.8220290693975869</v>
+        <v>0.8220290693976153</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3454627321829022</v>
+        <v>0.345462732182888</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
@@ -1266,19 +1266,19 @@
         <v>1.171503547554636</v>
       </c>
       <c r="H24">
-        <v>0.7219861068065114</v>
+        <v>0.7219861068065043</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7676684386952317</v>
+        <v>0.7676684386952459</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.274205659068571</v>
+        <v>1.274205659068542</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.052165019160867</v>
+        <v>2.052165019160896</v>
       </c>
       <c r="C25">
-        <v>0.6624772019364968</v>
+        <v>0.6624772019363263</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2782737566139559</v>
+        <v>0.2782737566139417</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
         <v>0.9967067088824848</v>
       </c>
       <c r="H25">
-        <v>0.6404014807119509</v>
+        <v>0.6404014807119722</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6213436124560801</v>
+        <v>0.6213436124560872</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.025605318679339</v>
+        <v>1.025605318679347</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
@@ -415,34 +415,34 @@
         <v>1.707142088911866</v>
       </c>
       <c r="C2">
-        <v>0.5486880580884588</v>
+        <v>0.5486880580882882</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2313983268812052</v>
+        <v>0.2313983268812265</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8804965006816516</v>
+        <v>0.8804965006816374</v>
       </c>
       <c r="H2">
-        <v>0.5888499256579962</v>
+        <v>0.5888499256580033</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5162609491674885</v>
+        <v>0.5162609491674743</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8487927111329512</v>
+        <v>0.8487927111329299</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.4767158720461</v>
+        <v>1.476715872046128</v>
       </c>
       <c r="C3">
-        <v>0.4732041679545773</v>
+        <v>0.4732041679544068</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8079810697147209</v>
+        <v>0.8079810697147067</v>
       </c>
       <c r="H3">
         <v>0.5582475110304372</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7318026110491829</v>
+        <v>0.7318026110491616</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.336486844134924</v>
+        <v>1.336486844134754</v>
       </c>
       <c r="C4">
-        <v>0.4274697210875331</v>
+        <v>0.4274697210876752</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1825887047115842</v>
+        <v>0.1825887047115629</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.766085241466719</v>
+        <v>0.7660852414667261</v>
       </c>
       <c r="H4">
-        <v>0.5413111459805364</v>
+        <v>0.5413111459805222</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4036292332600269</v>
+        <v>0.403629233260034</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6610678344531422</v>
+        <v>0.6610678344531493</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.279601172751995</v>
+        <v>1.279601172752251</v>
       </c>
       <c r="C5">
-        <v>0.408960998898209</v>
+        <v>0.4089609988980953</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1752534472802196</v>
+        <v>0.1752534472802054</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3863672716493411</v>
+        <v>0.3863672716493198</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6324783847642621</v>
+        <v>0.6324783847642834</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.270169419974451</v>
+        <v>1.270169419974479</v>
       </c>
       <c r="C6">
-        <v>0.4058946865751238</v>
+        <v>0.4058946865755786</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1740415249286258</v>
+        <v>0.1740415249286116</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7469117916717636</v>
+        <v>0.7469117916717778</v>
       </c>
       <c r="H6">
-        <v>0.5337866451630617</v>
+        <v>0.5337866451630688</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3835058301723606</v>
+        <v>0.3835058301723464</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6277442355936103</v>
+        <v>0.6277442355936245</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.335718687408274</v>
+        <v>1.335718687408104</v>
       </c>
       <c r="C7">
-        <v>0.4272196183479195</v>
+        <v>0.427219618347749</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1824893614401475</v>
+        <v>0.1824893614401404</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7658607314998633</v>
+        <v>0.7658607314998704</v>
       </c>
       <c r="H7">
-        <v>0.5412221504541748</v>
+        <v>0.5412221504541961</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.403396093078932</v>
+        <v>0.4033960930789249</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6606813644526</v>
+        <v>0.6606813644526071</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2207552785809739</v>
+        <v>0.220755278580981</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8549093211294334</v>
+        <v>0.8549093211294192</v>
       </c>
       <c r="H8">
-        <v>0.5778892694196855</v>
+        <v>0.5778892694196713</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8082012469569051</v>
+        <v>0.808201246956898</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.212155972671781</v>
+        <v>2.212155972671667</v>
       </c>
       <c r="C9">
-        <v>0.715552276601926</v>
+        <v>0.7155522766017555</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>0.3004456199552905</v>
       </c>
       <c r="F9">
-        <v>1.895061171842826</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.053421916941048</v>
+        <v>1.053421916941019</v>
       </c>
       <c r="H9">
-        <v>0.6664181615535227</v>
+        <v>0.6664181615535156</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.654019515070104</v>
+        <v>2.654019515069933</v>
       </c>
       <c r="C10">
-        <v>0.8631548087827241</v>
+        <v>0.8631548087826957</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3630313570637327</v>
+        <v>0.3630313570637043</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.218543797378871</v>
+        <v>1.218543797378885</v>
       </c>
       <c r="H10">
         <v>0.7445714789420492</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8051956087968719</v>
+        <v>0.8051956087969074</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.338383689375135</v>
+        <v>1.338383689375121</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>2.85883544117064</v>
       </c>
       <c r="C11">
-        <v>0.9320827430281327</v>
+        <v>0.9320827430284453</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3926914877367622</v>
+        <v>0.392691487736748</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.299057263813083</v>
+        <v>1.299057263813069</v>
       </c>
       <c r="H11">
         <v>0.7837356619576212</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8679204127293048</v>
+        <v>0.8679204127292763</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.44602222417987</v>
+        <v>1.446022224179885</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4041242295070901</v>
+        <v>0.4041242295071257</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.330438343486875</v>
+        <v>1.33043834348689</v>
       </c>
       <c r="H12">
-        <v>0.7991589139855506</v>
+        <v>0.7991589139855648</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8918951977684344</v>
+        <v>0.8918951977684628</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.487283739676911</v>
+        <v>1.487283739676926</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.920174725986726</v>
+        <v>2.920174725986556</v>
       </c>
       <c r="C13">
-        <v>0.9527888990351414</v>
+        <v>0.9527888990352551</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4016525173627841</v>
+        <v>0.4016525173627628</v>
       </c>
       <c r="F13">
-        <v>2.504295469236084</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.323638165527782</v>
+        <v>1.323638165527811</v>
       </c>
       <c r="H13">
-        <v>0.795809614136779</v>
+        <v>0.7958096141367861</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8867212799190298</v>
+        <v>0.886721279919044</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.478373681494134</v>
+        <v>1.478373681494105</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.865256452804545</v>
+        <v>2.865256452804374</v>
       </c>
       <c r="C14">
-        <v>0.9342488985226964</v>
+        <v>0.9342488985224406</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3936278492240604</v>
+        <v>0.3936278492240746</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.301620400384039</v>
+        <v>1.301620400384024</v>
       </c>
       <c r="H14">
-        <v>0.7849922113922574</v>
+        <v>0.7849922113922645</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.449406302806096</v>
+        <v>1.449406302806082</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.831706317337364</v>
+        <v>2.831706317337421</v>
       </c>
       <c r="C15">
-        <v>0.9229341506931803</v>
+        <v>0.9229341506930382</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3887396584712377</v>
+        <v>0.3887396584712164</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,7 +924,7 @@
         <v>1.288253800691933</v>
       </c>
       <c r="H15">
-        <v>0.7784457535814866</v>
+        <v>0.7784457535814937</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.43173072015199</v>
+        <v>1.431730720151975</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.6407199178376</v>
+        <v>2.640719917837544</v>
       </c>
       <c r="C16">
-        <v>0.8586902255483722</v>
+        <v>0.8586902255485427</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.213400271458227</v>
+        <v>1.213400271458212</v>
       </c>
       <c r="H16">
         <v>0.742090736766599</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8011254014767601</v>
+        <v>0.8011254014767388</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.331414874785821</v>
+        <v>1.331414874785807</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,19 +985,19 @@
         <v>2.524604528985151</v>
       </c>
       <c r="C17">
-        <v>0.8197689809881581</v>
+        <v>0.819768980988016</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3445000854232632</v>
+        <v>0.3445000854232418</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.168940775513349</v>
+        <v>1.168940775513335</v>
       </c>
       <c r="H17">
         <v>0.7207624311920995</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7656038809892536</v>
+        <v>0.7656038809892465</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.270679760896016</v>
+        <v>1.270679760896002</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,13 +1023,13 @@
         <v>2.458169402250689</v>
       </c>
       <c r="C18">
-        <v>0.7975469411210838</v>
+        <v>0.7975469411213396</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3350510361823993</v>
+        <v>0.3350510361823567</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
@@ -1038,7 +1038,7 @@
         <v>1.143869232472312</v>
       </c>
       <c r="H18">
-        <v>0.7088300188496746</v>
+        <v>0.7088300188496817</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>2.435732881869797</v>
       </c>
       <c r="C19">
-        <v>0.7900497567799505</v>
+        <v>0.790049756780121</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3318697835292426</v>
+        <v>0.3318697835292497</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.135463082481408</v>
+        <v>1.135463082481394</v>
       </c>
       <c r="H19">
         <v>0.7048453745183778</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7384341142222581</v>
+        <v>0.7384341142222297</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.536928104269066</v>
+        <v>2.536928104269009</v>
       </c>
       <c r="C20">
-        <v>0.8238948530768937</v>
+        <v>0.8238948530769505</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3462576571224361</v>
+        <v>0.3462576571224218</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.277116498112207</v>
+        <v>1.27711649811225</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.88136854241418</v>
+        <v>2.881368542414123</v>
       </c>
       <c r="C21">
-        <v>0.9396857901714384</v>
+        <v>0.9396857901715236</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.395979171143189</v>
+        <v>0.3959791711432317</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.308062332070733</v>
+        <v>1.308062332070747</v>
       </c>
       <c r="H21">
         <v>0.7881528297538978</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8748261022044375</v>
+        <v>0.8748261022044517</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.110365257458909</v>
+        <v>3.110365257458852</v>
       </c>
       <c r="C22">
-        <v>1.017177520245724</v>
+        <v>1.017177520245554</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4296642520131329</v>
+        <v>0.4296642520131257</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.401194337379252</v>
+        <v>1.401194337379266</v>
       </c>
       <c r="H22">
-        <v>0.8342309609302916</v>
+        <v>0.8342309609302845</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9450621440332725</v>
+        <v>0.9450621440332441</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.579018621528121</v>
+        <v>1.579018621528107</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.987750378918463</v>
+        <v>2.987750378918633</v>
       </c>
       <c r="C23">
-        <v>0.9756341498703023</v>
+        <v>0.9756341498706433</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4115660357847446</v>
+        <v>0.4115660357847517</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.350963661444865</v>
+        <v>1.350963661444851</v>
       </c>
       <c r="H23">
         <v>0.8092915776581435</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9074420525558367</v>
+        <v>0.9074420525558224</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.514075440006138</v>
+        <v>1.514075440006167</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.531355623546801</v>
+        <v>2.531355623546858</v>
       </c>
       <c r="C24">
-        <v>0.8220290693976153</v>
+        <v>0.8220290693975869</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.345462732182888</v>
+        <v>0.3454627321829022</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
@@ -1266,19 +1266,19 @@
         <v>1.171503547554636</v>
       </c>
       <c r="H24">
-        <v>0.7219861068065043</v>
+        <v>0.7219861068065114</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7676684386952459</v>
+        <v>0.7676684386952317</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.274205659068542</v>
+        <v>1.274205659068571</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.052165019160896</v>
+        <v>2.052165019160867</v>
       </c>
       <c r="C25">
-        <v>0.6624772019363263</v>
+        <v>0.6624772019364968</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2782737566139417</v>
+        <v>0.2782737566139559</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
         <v>0.9967067088824848</v>
       </c>
       <c r="H25">
-        <v>0.6404014807119722</v>
+        <v>0.6404014807119509</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6213436124560872</v>
+        <v>0.6213436124560801</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.025605318679347</v>
+        <v>1.025605318679339</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.707142088911866</v>
+        <v>1.707202196869503</v>
       </c>
       <c r="C2">
-        <v>0.5486880580882882</v>
+        <v>0.5482967928202811</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2313983268812265</v>
+        <v>0.2314201669629057</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8804965006816374</v>
+        <v>0.2726876887063838</v>
       </c>
       <c r="H2">
-        <v>0.5888499256580033</v>
+        <v>0.6096017884875238</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5872751810967216</v>
       </c>
       <c r="J2">
-        <v>0.5162609491674743</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5161662014651114</v>
       </c>
       <c r="L2">
-        <v>0.8487927111329299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.8487225199079234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.476715872046128</v>
+        <v>1.476791110870721</v>
       </c>
       <c r="C3">
-        <v>0.4732041679544068</v>
+        <v>0.472873161543049</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2008536345241438</v>
+        <v>0.2008743604120014</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.8079810697147067</v>
+        <v>0.2459568373857621</v>
       </c>
       <c r="H3">
-        <v>0.5582475110304372</v>
+        <v>0.5641378912571753</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5568288002561346</v>
       </c>
       <c r="J3">
-        <v>0.4462091752935322</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4461340218250811</v>
       </c>
       <c r="L3">
-        <v>0.7318026110491616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.731747652624918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.336486844134754</v>
+        <v>1.336568597648863</v>
       </c>
       <c r="C4">
-        <v>0.4274697210876752</v>
+        <v>0.4271743044196228</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1825887047115629</v>
+        <v>0.1826087738923334</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7660852414667261</v>
+        <v>0.2303862760141158</v>
       </c>
       <c r="H4">
-        <v>0.5413111459805222</v>
+        <v>0.5380046980478284</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.5399862946524792</v>
       </c>
       <c r="J4">
-        <v>0.403629233260034</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.403565146813996</v>
       </c>
       <c r="L4">
-        <v>0.6610678344531493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.6610209848564352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.279601172752251</v>
+        <v>1.279684968959742</v>
       </c>
       <c r="C5">
-        <v>0.4089609988980953</v>
+        <v>0.4086797838020857</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1752534472802054</v>
+        <v>0.1752732596330517</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7496125166389547</v>
+        <v>0.2242321655837571</v>
       </c>
       <c r="H5">
-        <v>0.5348369355396088</v>
+        <v>0.5277633193616964</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5335499208772205</v>
       </c>
       <c r="J5">
-        <v>0.3863672716493198</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3863074850005859</v>
       </c>
       <c r="L5">
-        <v>0.6324783847642834</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.6324345702218608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.270169419974479</v>
+        <v>1.270253520745001</v>
       </c>
       <c r="C6">
-        <v>0.4058946865755786</v>
+        <v>0.4056158128727532</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1740415249286116</v>
+        <v>0.174061295384071</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7469117916717778</v>
+        <v>0.2232212406491385</v>
       </c>
       <c r="H6">
-        <v>0.5337866451630688</v>
+        <v>0.526086286583606</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5325058904982356</v>
       </c>
       <c r="J6">
-        <v>0.3835058301723464</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3834467456935471</v>
       </c>
       <c r="L6">
-        <v>0.6277442355936245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.6277009099281017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.335718687408104</v>
+        <v>1.335800470842145</v>
       </c>
       <c r="C7">
-        <v>0.427219618347749</v>
+        <v>0.4269243943619188</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1824893614401404</v>
+        <v>0.1825094271091032</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7658607314998704</v>
+        <v>0.23030253237485</v>
       </c>
       <c r="H7">
-        <v>0.5412221504541961</v>
+        <v>0.5378649773192024</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5398978109752548</v>
       </c>
       <c r="J7">
-        <v>0.4033960930789249</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4033320654318899</v>
       </c>
       <c r="L7">
-        <v>0.6606813644526071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.6606345568244905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.627395409473792</v>
+        <v>1.627461365242539</v>
       </c>
       <c r="C8">
-        <v>0.5225178044877055</v>
+        <v>0.5221476425910225</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.220755278580981</v>
+        <v>0.220776731436672</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8549093211294192</v>
+        <v>0.2632830324109676</v>
       </c>
       <c r="H8">
-        <v>0.5778892694196713</v>
+        <v>0.5935309507807816</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5763687783744587</v>
       </c>
       <c r="J8">
-        <v>0.4920054750381269</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4919177040000733</v>
       </c>
       <c r="L8">
-        <v>0.808201246956898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.8081365940686851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.212155972671667</v>
+        <v>2.212164458579537</v>
       </c>
       <c r="C9">
-        <v>0.7155522766017555</v>
+        <v>0.7150212667496021</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3004456199552905</v>
+        <v>0.3004697770551346</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.053421916941019</v>
+        <v>0.3356744224986983</v>
       </c>
       <c r="H9">
-        <v>0.6664181615535156</v>
+        <v>0.7188162821624786</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6644936078572314</v>
       </c>
       <c r="J9">
-        <v>0.670149264894178</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6700056288128096</v>
       </c>
       <c r="L9">
-        <v>1.108226329059747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.10811453744828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.654019515069933</v>
+        <v>2.653962529216585</v>
       </c>
       <c r="C10">
-        <v>0.8631548087826957</v>
+        <v>0.8624927742167756</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3630313570637043</v>
+        <v>0.3630570473842241</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.218543797378885</v>
+        <v>0.3951721529381729</v>
       </c>
       <c r="H10">
-        <v>0.7445714789420492</v>
+        <v>0.8237830680543539</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.7423318313395058</v>
       </c>
       <c r="J10">
-        <v>0.8051956087969074</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8050025787449613</v>
       </c>
       <c r="L10">
-        <v>1.338383689375121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.338226107847277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.85883544117064</v>
+        <v>2.85874167960975</v>
       </c>
       <c r="C11">
-        <v>0.9320827430284453</v>
+        <v>0.9313571266363851</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.392691487736748</v>
+        <v>0.3927176322375203</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.299057263813069</v>
+        <v>0.4240224430003536</v>
       </c>
       <c r="H11">
-        <v>0.7837356619576212</v>
+        <v>0.8751339787603456</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.7813469902249679</v>
       </c>
       <c r="J11">
-        <v>0.8679204127292763</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8677023719337598</v>
       </c>
       <c r="L11">
-        <v>1.446022224179885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.445840340409632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.937050873049429</v>
+        <v>2.936941982768474</v>
       </c>
       <c r="C12">
-        <v>0.958490872801292</v>
+        <v>0.9577404881405869</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4041242295071257</v>
+        <v>0.4041504942460463</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.33043834348689</v>
+        <v>0.4352435899489819</v>
       </c>
       <c r="H12">
-        <v>0.7991589139855648</v>
+        <v>0.8951733839297873</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7967128206387954</v>
       </c>
       <c r="J12">
-        <v>0.8918951977684628</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8916672470673319</v>
       </c>
       <c r="L12">
-        <v>1.487283739676926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.4870920453194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.920174725986556</v>
+        <v>2.920069150941345</v>
       </c>
       <c r="C13">
-        <v>0.9527888990352551</v>
+        <v>0.9520438815242755</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4016525173627628</v>
+        <v>0.4016787588256747</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.323638165527811</v>
+        <v>0.432813057094279</v>
       </c>
       <c r="H13">
-        <v>0.7958096141367861</v>
+        <v>0.890829804612622</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.7933759346107863</v>
       </c>
       <c r="J13">
-        <v>0.886721279919044</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8864954843199229</v>
       </c>
       <c r="L13">
-        <v>1.478373681494105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.47818412901178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.865256452804374</v>
+        <v>2.865161471947943</v>
       </c>
       <c r="C14">
-        <v>0.9342488985224406</v>
+        <v>0.9335212590391109</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3936278492240746</v>
+        <v>0.3936540047668728</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.301620400384024</v>
+        <v>0.4249394327122786</v>
       </c>
       <c r="H14">
-        <v>0.7849922113922645</v>
+        <v>0.8767702577988246</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7825988364643095</v>
       </c>
       <c r="J14">
-        <v>0.8698881517541395</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8696693049267736</v>
       </c>
       <c r="L14">
-        <v>1.449406302806082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.449223624791983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.831706317337421</v>
+        <v>2.831617662683357</v>
       </c>
       <c r="C15">
-        <v>0.9229341506930382</v>
+        <v>0.9222170618536722</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3887396584712164</v>
+        <v>0.3887657540689773</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.288253800691933</v>
+        <v>0.4201564426709012</v>
       </c>
       <c r="H15">
-        <v>0.7784457535814937</v>
+        <v>0.8682381553439029</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7760769319491345</v>
       </c>
       <c r="J15">
-        <v>0.8596074862037426</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8593928361483307</v>
       </c>
       <c r="L15">
-        <v>1.431730720151975</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.431552170210111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.640719917837544</v>
+        <v>2.640665178573215</v>
       </c>
       <c r="C16">
-        <v>0.8586902255485427</v>
+        <v>0.858032256416692</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3611194107798141</v>
+        <v>0.3611450651921118</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.213400271458212</v>
+        <v>0.3933258938593553</v>
       </c>
       <c r="H16">
-        <v>0.742090736766599</v>
+        <v>0.8205059114004882</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7398606997707944</v>
       </c>
       <c r="J16">
-        <v>0.8011254014767388</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8009339488009957</v>
       </c>
       <c r="L16">
-        <v>1.331414874785807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.331258802777114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.524604528985151</v>
+        <v>2.524568674878651</v>
       </c>
       <c r="C17">
-        <v>0.819768980988016</v>
+        <v>0.8191461822875965</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3445000854232418</v>
+        <v>0.3445253963177706</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.168940775513335</v>
+        <v>0.3773498553336623</v>
       </c>
       <c r="H17">
-        <v>0.7207624311920995</v>
+        <v>0.7921971728663664</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7186159640475935</v>
       </c>
       <c r="J17">
-        <v>0.7656038809892465</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7654259598178967</v>
       </c>
       <c r="L17">
-        <v>1.270679760896002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.270536518031662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.458169402250689</v>
+        <v>2.458143765841896</v>
       </c>
       <c r="C18">
-        <v>0.7975469411213396</v>
+        <v>0.7969440052931134</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3350510361823567</v>
+        <v>0.3350761278339007</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.143869232472312</v>
+        <v>0.3683261759432526</v>
       </c>
       <c r="H18">
-        <v>0.7088300188496817</v>
+        <v>0.7762485835855415</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7067310954355008</v>
       </c>
       <c r="J18">
-        <v>0.7452919606769512</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7451215883441691</v>
       </c>
       <c r="L18">
-        <v>1.236017873653736</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.235881690537823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.435732881869797</v>
+        <v>2.435710599766821</v>
       </c>
       <c r="C19">
-        <v>0.790049756780121</v>
+        <v>0.789453486594482</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3318697835292497</v>
+        <v>0.3318947976676867</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.135463082481394</v>
+        <v>0.3652981819525536</v>
       </c>
       <c r="H19">
-        <v>0.7048453745183778</v>
+        <v>0.7709038413339471</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.7027624634799778</v>
       </c>
       <c r="J19">
-        <v>0.7384341142222297</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7382662596265277</v>
       </c>
       <c r="L19">
-        <v>1.224326329499775</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.224192484848743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.536928104269009</v>
+        <v>2.536890307834483</v>
       </c>
       <c r="C20">
-        <v>0.8238948530769505</v>
+        <v>0.8232683491282842</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3462576571224218</v>
+        <v>0.3462830069339802</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.17362098359898</v>
+        <v>0.3790331518914485</v>
       </c>
       <c r="H20">
-        <v>0.7229976868314054</v>
+        <v>0.7951756140141555</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7208423788627911</v>
       </c>
       <c r="J20">
-        <v>0.7693726293795535</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7691932924804092</v>
       </c>
       <c r="L20">
-        <v>1.27711649811225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.276971923325277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.881368542414123</v>
+        <v>2.881270484167203</v>
       </c>
       <c r="C21">
-        <v>0.9396857901715236</v>
+        <v>0.9389530661503329</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3959791711432317</v>
+        <v>0.3960053534843979</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.308062332070747</v>
+        <v>0.4272437279858252</v>
       </c>
       <c r="H21">
-        <v>0.7881528297538978</v>
+        <v>0.8808831120813636</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.785747644752476</v>
       </c>
       <c r="J21">
-        <v>0.8748261022044517</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8746052269143121</v>
       </c>
       <c r="L21">
-        <v>1.45790044491396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.457715765168444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.110365257458852</v>
+        <v>3.110220687347976</v>
       </c>
       <c r="C22">
-        <v>1.017177520245554</v>
+        <v>1.016371275492105</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4296642520131257</v>
+        <v>0.4296906653910355</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.401194337379266</v>
+        <v>0.460500696367987</v>
       </c>
       <c r="H22">
-        <v>0.8342309609302845</v>
+        <v>0.9404026530853287</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.8316565982027768</v>
       </c>
       <c r="J22">
-        <v>0.9450621440332441</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.944811519060508</v>
       </c>
       <c r="L22">
-        <v>1.579018621528107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.578804121368591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.987750378918633</v>
+        <v>2.987631359732461</v>
       </c>
       <c r="C23">
-        <v>0.9756341498706433</v>
+        <v>0.974867564566523</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4115660357847517</v>
+        <v>0.411592361332211</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.350963661444851</v>
+        <v>0.4425763595675534</v>
       </c>
       <c r="H23">
-        <v>0.8092915776581435</v>
+        <v>0.908287425373004</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8068081097957602</v>
       </c>
       <c r="J23">
-        <v>0.9074420525558224</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9072075713632017</v>
       </c>
       <c r="L23">
-        <v>1.514075440006167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.51387722742146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.531355623546858</v>
+        <v>2.531318707216599</v>
       </c>
       <c r="C24">
-        <v>0.8220290693975869</v>
+        <v>0.8214042416952054</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3454627321829022</v>
+        <v>0.3454880644665579</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.171503547554636</v>
+        <v>0.3782716344697974</v>
       </c>
       <c r="H24">
-        <v>0.7219861068065114</v>
+        <v>0.7938280494787335</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7198347973244807</v>
       </c>
       <c r="J24">
-        <v>0.7676684386952317</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7674897425595262</v>
       </c>
       <c r="L24">
-        <v>1.274205659068571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.274061687419859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.052165019160867</v>
+        <v>2.052192554800598</v>
       </c>
       <c r="C25">
-        <v>0.6624772019364968</v>
+        <v>0.6619916073059358</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2782737566139559</v>
+        <v>0.278297222322017</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.9967067088824848</v>
+        <v>0.3151093040980584</v>
       </c>
       <c r="H25">
-        <v>0.6404014807119509</v>
+        <v>0.6828987570311824</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6385889208812969</v>
       </c>
       <c r="J25">
-        <v>0.6213436124560801</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6212163382763194</v>
       </c>
       <c r="L25">
-        <v>1.025605318679339</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.025507929704673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.707202196869503</v>
+        <v>1.779859513617168</v>
       </c>
       <c r="C2">
-        <v>0.5482967928202811</v>
+        <v>0.3571079793137244</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2314201669629057</v>
+        <v>0.09184498102600713</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.548857269619475</v>
       </c>
       <c r="G2">
-        <v>0.2726876887063838</v>
+        <v>0.0008069895649884931</v>
       </c>
       <c r="H2">
-        <v>0.6096017884875238</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5872751810967216</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07856607691886808</v>
       </c>
       <c r="K2">
-        <v>0.5161662014651114</v>
+        <v>0.4722101392979638</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8487225199079234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5550746172775618</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.543670731289851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.476791110870721</v>
+        <v>1.536848683664914</v>
       </c>
       <c r="C3">
-        <v>0.472873161543049</v>
+        <v>0.308607625117844</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2008743604120014</v>
+        <v>0.08416166145028825</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>2.326324994283368</v>
       </c>
       <c r="G3">
-        <v>0.2459568373857621</v>
+        <v>0.0008146832771080923</v>
       </c>
       <c r="H3">
-        <v>0.5641378912571753</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5568288002561346</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07686975608592306</v>
       </c>
       <c r="K3">
-        <v>0.4461340218250811</v>
+        <v>0.4073556764878532</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.731747652624918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4823895218601351</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.417619877923059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.336568597648863</v>
+        <v>1.389675122985636</v>
       </c>
       <c r="C4">
-        <v>0.4271743044196228</v>
+        <v>0.2791730500929361</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1826087738923334</v>
+        <v>0.07953529733779519</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.194188505779962</v>
       </c>
       <c r="G4">
-        <v>0.2303862760141158</v>
+        <v>0.0008195301784450687</v>
       </c>
       <c r="H4">
-        <v>0.5380046980478284</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5399862946524792</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07596541444098293</v>
       </c>
       <c r="K4">
-        <v>0.403565146813996</v>
+        <v>0.3680562108574179</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6610209848564352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4383769240711786</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.343293296736874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.279684968959742</v>
+        <v>1.330139133307171</v>
       </c>
       <c r="C5">
-        <v>0.4086797838020857</v>
+        <v>0.2672495379058546</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1752732596330517</v>
+        <v>0.07767170638068777</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.14137091158112</v>
       </c>
       <c r="G5">
-        <v>0.2242321655837571</v>
+        <v>0.0008215376498350782</v>
       </c>
       <c r="H5">
-        <v>0.5277633193616964</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5335499208772205</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07562867142699048</v>
       </c>
       <c r="K5">
-        <v>0.3863074850005859</v>
+        <v>0.3521526634610339</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6324345702218608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4205770418657266</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.313703784196278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.270253520745001</v>
+        <v>1.320277670562973</v>
       </c>
       <c r="C6">
-        <v>0.4056158128727532</v>
+        <v>0.2652735298677271</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.174061295384071</v>
+        <v>0.0773635339384704</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>2.132659901212932</v>
       </c>
       <c r="G6">
-        <v>0.2232212406491385</v>
+        <v>0.000821872980170396</v>
       </c>
       <c r="H6">
-        <v>0.526086286583606</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5325058904982356</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07557459978560388</v>
       </c>
       <c r="K6">
-        <v>0.3834467456935471</v>
+        <v>0.3495180655585202</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6277009099281017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4176290384243586</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.308830679655074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.335800470842145</v>
+        <v>1.388870517491767</v>
       </c>
       <c r="C7">
-        <v>0.4269243943619188</v>
+        <v>0.2790119760769301</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1825094271091032</v>
+        <v>0.07951007805417376</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>2.193472152010528</v>
       </c>
       <c r="G7">
-        <v>0.23030253237485</v>
+        <v>0.0008195571191938891</v>
       </c>
       <c r="H7">
-        <v>0.5378649773192024</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5398978109752548</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07596074775065986</v>
       </c>
       <c r="K7">
-        <v>0.4033320654318899</v>
+        <v>0.3678413043969044</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6606345568244905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.438136344039755</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.342891503182216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.627461365242539</v>
+        <v>1.695600530553264</v>
       </c>
       <c r="C8">
-        <v>0.5221476425910225</v>
+        <v>0.3403037824305386</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.220776731436672</v>
+        <v>0.08917605221509461</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>2.471130227156479</v>
       </c>
       <c r="G8">
-        <v>0.2632830324109676</v>
+        <v>0.0008096177241559902</v>
       </c>
       <c r="H8">
-        <v>0.5935309507807816</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5763687783744587</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07795100170045899</v>
       </c>
       <c r="K8">
-        <v>0.4919177040000733</v>
+        <v>0.4497276273853998</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8081365940686851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5298726922559993</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.499525870841069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.212164458579537</v>
+        <v>2.316936447674777</v>
       </c>
       <c r="C9">
-        <v>0.7150212667496021</v>
+        <v>0.46400785507808</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3004697770551346</v>
+        <v>0.1089177205561427</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>3.05639104352295</v>
       </c>
       <c r="G9">
-        <v>0.3356744224986983</v>
+        <v>0.0007910322438467859</v>
       </c>
       <c r="H9">
-        <v>0.7188162821624786</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6644936078572314</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08307784964119946</v>
       </c>
       <c r="K9">
-        <v>0.6700056288128096</v>
+        <v>0.6154374121948294</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.10811453744828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.7156276993887261</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.834643523541303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.653962529216585</v>
+        <v>2.791283768652931</v>
       </c>
       <c r="C10">
-        <v>0.8624927742167756</v>
+        <v>0.5582518076305405</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3630570473842241</v>
+        <v>0.1239995923491755</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>3.519098865558334</v>
       </c>
       <c r="G10">
-        <v>0.3951721529381729</v>
+        <v>0.0007778217096778555</v>
       </c>
       <c r="H10">
-        <v>0.8237830680543539</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7423318313395058</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08780149469033205</v>
       </c>
       <c r="K10">
-        <v>0.8050025787449613</v>
+        <v>0.7418672688720207</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.338226107847277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.857187423338388</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.103494645761714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.85874167960975</v>
+        <v>3.012430158259917</v>
       </c>
       <c r="C11">
-        <v>0.9313571266363851</v>
+        <v>0.6021703775489016</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3927176322375203</v>
+        <v>0.1310108401096635</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>3.738699899088857</v>
       </c>
       <c r="G11">
-        <v>0.4240224430003536</v>
+        <v>0.0007718809997246421</v>
       </c>
       <c r="H11">
-        <v>0.8751339787603456</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7813469902249679</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09021252855757922</v>
       </c>
       <c r="K11">
-        <v>0.8677023719337598</v>
+        <v>0.8008000874120924</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.445840340409632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.9230771769429893</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.232148258997938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.936941982768474</v>
+        <v>3.097084871105949</v>
       </c>
       <c r="C12">
-        <v>0.9577404881405869</v>
+        <v>0.6189820434813385</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4041504942460463</v>
+        <v>0.1336897323399278</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>3.82335761501065</v>
       </c>
       <c r="G12">
-        <v>0.4352435899489819</v>
+        <v>0.0007696387160461837</v>
       </c>
       <c r="H12">
-        <v>0.8951733839297873</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7967128206387954</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.09116848240523723</v>
       </c>
       <c r="K12">
-        <v>0.8916672470673319</v>
+        <v>0.8233587502735418</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.4870920453194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.9482793405397558</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.281916212449119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.920069150941345</v>
+        <v>3.078810004458262</v>
       </c>
       <c r="C13">
-        <v>0.9520438815242755</v>
+        <v>0.6153527913452308</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4016787588256747</v>
+        <v>0.1331116841699966</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>3.805055103616866</v>
       </c>
       <c r="G13">
-        <v>0.432813057094279</v>
+        <v>0.0007701213499249509</v>
       </c>
       <c r="H13">
-        <v>0.890829804612622</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7933759346107863</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.09096059951954771</v>
       </c>
       <c r="K13">
-        <v>0.8864954843199229</v>
+        <v>0.8184889134082738</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.47818412901178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.9428398059535681</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.271148754448618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.865161471947943</v>
+        <v>3.019375619997788</v>
       </c>
       <c r="C14">
-        <v>0.9335212590391109</v>
+        <v>0.6035496754355165</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3936540047668728</v>
+        <v>0.1312307417174949</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>3.745633519804983</v>
       </c>
       <c r="G14">
-        <v>0.4249394327122786</v>
+        <v>0.0007716963944647548</v>
       </c>
       <c r="H14">
-        <v>0.8767702577988246</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7825988364643095</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.09029028219789836</v>
       </c>
       <c r="K14">
-        <v>0.8696693049267736</v>
+        <v>0.8026509151230528</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.449223624791983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.9251453162743957</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.236220820116429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.831617662683357</v>
+        <v>2.983093497100754</v>
       </c>
       <c r="C15">
-        <v>0.9222170618536722</v>
+        <v>0.5963444176105668</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3887657540689773</v>
+        <v>0.1300817917086654</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>3.709437383403127</v>
       </c>
       <c r="G15">
-        <v>0.4201564426709012</v>
+        <v>0.0007726620284296346</v>
       </c>
       <c r="H15">
-        <v>0.8682381553439029</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7760769319491345</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.08988545399157744</v>
       </c>
       <c r="K15">
-        <v>0.8593928361483307</v>
+        <v>0.7929824222555695</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.431552170210111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.9143407934217862</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.214967482152787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.640665178573215</v>
+        <v>2.776950835051764</v>
       </c>
       <c r="C16">
-        <v>0.858032256416692</v>
+        <v>0.5554051730454148</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3611450651921118</v>
+        <v>0.1235446050006743</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>3.504946446812795</v>
       </c>
       <c r="G16">
-        <v>0.3933258938593553</v>
+        <v>0.0007782111220467059</v>
       </c>
       <c r="H16">
-        <v>0.8205059114004882</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7398606997707944</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08764963697386463</v>
       </c>
       <c r="K16">
-        <v>0.8009339488009957</v>
+        <v>0.7380475677213738</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.331258802777114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8529144355808427</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.095225905895902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.524568674878651</v>
+        <v>2.651956936405327</v>
       </c>
       <c r="C17">
-        <v>0.8191461822875965</v>
+        <v>0.5305785490336348</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3445253963177706</v>
+        <v>0.1195743098567803</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>3.381959440443154</v>
       </c>
       <c r="G17">
-        <v>0.3773498553336623</v>
+        <v>0.0007816312116911126</v>
       </c>
       <c r="H17">
-        <v>0.7921971728663664</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7186159640475935</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08634871471043937</v>
       </c>
       <c r="K17">
-        <v>0.7654259598178967</v>
+        <v>0.7047358578599656</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.270536518031662</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8156383959727975</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.023486889234803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.458143765841896</v>
+        <v>2.580559215039045</v>
       </c>
       <c r="C18">
-        <v>0.7969440052931134</v>
+        <v>0.5163954093058862</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3350761278339007</v>
+        <v>0.1173047116151906</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>3.312065728765589</v>
       </c>
       <c r="G18">
-        <v>0.3683261759432526</v>
+        <v>0.0007836050057871689</v>
       </c>
       <c r="H18">
-        <v>0.7762485835855415</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7067310954355008</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08562478897090386</v>
       </c>
       <c r="K18">
-        <v>0.7451215883441691</v>
+        <v>0.6857068864109834</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.235881690537823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7943363573653102</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1.982813280614124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.435710599766821</v>
+        <v>2.556466283375812</v>
       </c>
       <c r="C19">
-        <v>0.789453486594482</v>
+        <v>0.5116089566575681</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3318947976676867</v>
+        <v>0.1165386061742062</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>3.288540679791282</v>
       </c>
       <c r="G19">
-        <v>0.3652981819525536</v>
+        <v>0.0007842745135978098</v>
       </c>
       <c r="H19">
-        <v>0.7709038413339471</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7027624634799778</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08538371022847002</v>
       </c>
       <c r="K19">
-        <v>0.7382662596265277</v>
+        <v>0.6792854302570177</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.224192484848743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7871465438266156</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.969139139882017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.536890307834483</v>
+        <v>2.665210512796648</v>
       </c>
       <c r="C20">
-        <v>0.8232683491282842</v>
+        <v>0.5332111945716633</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3462830069339802</v>
+        <v>0.1199954889574677</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>3.394962848699265</v>
       </c>
       <c r="G20">
-        <v>0.3790331518914485</v>
+        <v>0.0007812664666458465</v>
       </c>
       <c r="H20">
-        <v>0.7951756140141555</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7208423788627911</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08648464622647367</v>
       </c>
       <c r="K20">
-        <v>0.7691932924804092</v>
+        <v>0.7082681239130366</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.276971923325277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.819591946230652</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.031061761014442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.881270484167203</v>
+        <v>3.036806998288625</v>
       </c>
       <c r="C21">
-        <v>0.9389530661503329</v>
+        <v>0.607011372991451</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3960053534843979</v>
+        <v>0.131782552706774</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>3.763044757629189</v>
       </c>
       <c r="G21">
-        <v>0.4272437279858252</v>
+        <v>0.0007712335887029054</v>
       </c>
       <c r="H21">
-        <v>0.8808831120813636</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.785747644752476</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.09048595979814422</v>
       </c>
       <c r="K21">
-        <v>0.8746052269143121</v>
+        <v>0.8072960215568727</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.457715765168444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.930335488378482</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.246450342417404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.110220687347976</v>
+        <v>3.285057594545151</v>
       </c>
       <c r="C22">
-        <v>1.016371275492105</v>
+        <v>0.6563141341863741</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4296906653910355</v>
+        <v>0.1396265268481685</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>4.012453568159572</v>
       </c>
       <c r="G22">
-        <v>0.460500696367987</v>
+        <v>0.0007647178440717704</v>
       </c>
       <c r="H22">
-        <v>0.9404026530853287</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8316565982027768</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.09335434318732894</v>
       </c>
       <c r="K22">
-        <v>0.944811519060508</v>
+        <v>0.8734488891896888</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.578804121368591</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.00419693635429</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.393413544288251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.987631359732461</v>
+        <v>3.152017153407996</v>
       </c>
       <c r="C23">
-        <v>0.974867564566523</v>
+        <v>0.629891342911435</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.411592361332211</v>
+        <v>0.1354263895007968</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>3.878461189542435</v>
       </c>
       <c r="G23">
-        <v>0.4425763595675534</v>
+        <v>0.0007681925710927247</v>
       </c>
       <c r="H23">
-        <v>0.908287425373004</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8068081097957602</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.09179833559675643</v>
       </c>
       <c r="K23">
-        <v>0.9072075713632017</v>
+        <v>0.8379969024910281</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.51387722742146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9646266545059135</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.314360040468102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.531318707216599</v>
+        <v>2.65921713932471</v>
       </c>
       <c r="C24">
-        <v>0.8214042416952054</v>
+        <v>0.5320206973671588</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3454880644665579</v>
+        <v>0.1198050336316818</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>3.389081489023994</v>
       </c>
       <c r="G24">
-        <v>0.3782716344697974</v>
+        <v>0.0007814313442033981</v>
       </c>
       <c r="H24">
-        <v>0.7938280494787335</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7198347973244807</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08642311724611318</v>
       </c>
       <c r="K24">
-        <v>0.7674897425595262</v>
+        <v>0.7066708080694397</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.274061687419859</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8178041487474061</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.027635395799535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.052192554800598</v>
+        <v>2.146168682608334</v>
       </c>
       <c r="C25">
-        <v>0.6619916073059358</v>
+        <v>0.4300495168566556</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.278297222322017</v>
+        <v>0.1034833123819396</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>2.89293563906952</v>
       </c>
       <c r="G25">
-        <v>0.3151093040980584</v>
+        <v>0.0007959736251534631</v>
       </c>
       <c r="H25">
-        <v>0.6828987570311824</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6385889208812969</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08153954899214</v>
       </c>
       <c r="K25">
-        <v>0.6212163382763194</v>
+        <v>0.569909179448949</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.025507929704673</v>
+        <v>0.6646022798920299</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.740450891107628</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.779859513617168</v>
+        <v>2.590077467982724</v>
       </c>
       <c r="C2">
-        <v>0.3571079793137244</v>
+        <v>0.429783187263979</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09184498102600713</v>
+        <v>0.07731445678112259</v>
       </c>
       <c r="F2">
-        <v>2.548857269619475</v>
+        <v>0.8704464260960663</v>
       </c>
       <c r="G2">
-        <v>0.0008069895649884931</v>
+        <v>0.0008024658252258066</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2853445453493286</v>
       </c>
       <c r="J2">
-        <v>0.07856607691886808</v>
+        <v>0.07983864434527277</v>
       </c>
       <c r="K2">
-        <v>0.4722101392979638</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3253386734378978</v>
       </c>
       <c r="M2">
-        <v>0.5550746172775618</v>
+        <v>0.5127408087857361</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.543670731289851</v>
+        <v>1.352151928757465</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.536848683664914</v>
+        <v>2.25289202065602</v>
       </c>
       <c r="C3">
-        <v>0.308607625117844</v>
+        <v>0.3919666143973473</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08416166145028825</v>
+        <v>0.07830965825762171</v>
       </c>
       <c r="F3">
-        <v>2.326324994283368</v>
+        <v>0.8431514394959976</v>
       </c>
       <c r="G3">
-        <v>0.0008146832771080923</v>
+        <v>0.0008065791971180215</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2991761628072034</v>
       </c>
       <c r="J3">
-        <v>0.07686975608592306</v>
+        <v>0.07353962670954672</v>
       </c>
       <c r="K3">
-        <v>0.4073556764878532</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2959204078887296</v>
       </c>
       <c r="M3">
-        <v>0.4823895218601351</v>
+        <v>0.4477717406148827</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.417619877923059</v>
+        <v>1.336486964340082</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.389675122985636</v>
+        <v>2.04608475380013</v>
       </c>
       <c r="C4">
-        <v>0.2791730500929361</v>
+        <v>0.3687417608378496</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07953529733779519</v>
+        <v>0.07900043261801404</v>
       </c>
       <c r="F4">
-        <v>2.194188505779962</v>
+        <v>0.828247058158027</v>
       </c>
       <c r="G4">
-        <v>0.0008195301784450687</v>
+        <v>0.0008091869181416072</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3086366842599872</v>
       </c>
       <c r="J4">
-        <v>0.07596541444098293</v>
+        <v>0.06967788020714494</v>
       </c>
       <c r="K4">
-        <v>0.3680562108574179</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2780724885906096</v>
       </c>
       <c r="M4">
-        <v>0.4383769240711786</v>
+        <v>0.4079934830177265</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.343293296736874</v>
+        <v>1.331057390893662</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.330139133307171</v>
+        <v>1.96183873511211</v>
       </c>
       <c r="C5">
-        <v>0.2672495379058546</v>
+        <v>0.3592731855512596</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07767170638068777</v>
+        <v>0.0793016702408158</v>
       </c>
       <c r="F5">
-        <v>2.14137091158112</v>
+        <v>0.8226186730524176</v>
       </c>
       <c r="G5">
-        <v>0.0008215376498350782</v>
+        <v>0.0008102706213522426</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3127258687669752</v>
       </c>
       <c r="J5">
-        <v>0.07562867142699048</v>
+        <v>0.06810528028074714</v>
       </c>
       <c r="K5">
-        <v>0.3521526634610339</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2708497554864806</v>
       </c>
       <c r="M5">
-        <v>0.4205770418657266</v>
+        <v>0.3918062325159966</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.313703784196278</v>
+        <v>1.329846519450598</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.320277670562973</v>
+        <v>1.947850776429618</v>
       </c>
       <c r="C6">
-        <v>0.2652735298677271</v>
+        <v>0.3577005973448877</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0773635339384704</v>
+        <v>0.0793528741946723</v>
       </c>
       <c r="F6">
-        <v>2.132659901212932</v>
+        <v>0.82171037793929</v>
       </c>
       <c r="G6">
-        <v>0.000821872980170396</v>
+        <v>0.000810451851045096</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3134187371958532</v>
       </c>
       <c r="J6">
-        <v>0.07557459978560388</v>
+        <v>0.06784420657614376</v>
       </c>
       <c r="K6">
-        <v>0.3495180655585202</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2696533702923318</v>
       </c>
       <c r="M6">
-        <v>0.4176290384243586</v>
+        <v>0.389119563765199</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.308830679655074</v>
+        <v>1.329704496911276</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.388870517491767</v>
+        <v>2.044948497240341</v>
       </c>
       <c r="C7">
-        <v>0.2790119760769301</v>
+        <v>0.3686140852698117</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07951007805417376</v>
+        <v>0.0790044156739178</v>
       </c>
       <c r="F7">
-        <v>2.193472152010528</v>
+        <v>0.8281693761157882</v>
       </c>
       <c r="G7">
-        <v>0.0008195571191938891</v>
+        <v>0.0008092014477029923</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3086908973293809</v>
       </c>
       <c r="J7">
-        <v>0.07596074775065986</v>
+        <v>0.06965666763672829</v>
       </c>
       <c r="K7">
-        <v>0.3678413043969044</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2779748807105591</v>
       </c>
       <c r="M7">
-        <v>0.438136344039755</v>
+        <v>0.4077750914161271</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.342891503182216</v>
+        <v>1.33103707101867</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.695600530553264</v>
+        <v>2.473751998214539</v>
       </c>
       <c r="C8">
-        <v>0.3403037824305386</v>
+        <v>0.4167433030856387</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08917605221509461</v>
+        <v>0.07764087040874834</v>
       </c>
       <c r="F8">
-        <v>2.471130227156479</v>
+        <v>0.8606370895109734</v>
       </c>
       <c r="G8">
-        <v>0.0008096177241559902</v>
+        <v>0.0008038673193818369</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2899069961265326</v>
       </c>
       <c r="J8">
-        <v>0.07795100170045899</v>
+        <v>0.07766528178616738</v>
       </c>
       <c r="K8">
-        <v>0.4497276273853998</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3151483740562782</v>
       </c>
       <c r="M8">
-        <v>0.5298726922559993</v>
+        <v>0.4903124532307643</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.499525870841069</v>
+        <v>1.345849415017128</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.316936447674777</v>
+        <v>3.317786301283661</v>
       </c>
       <c r="C9">
-        <v>0.46400785507808</v>
+        <v>0.5112295450257704</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1089177205561427</v>
+        <v>0.0756137897613236</v>
       </c>
       <c r="F9">
-        <v>3.05639104352295</v>
+        <v>0.940032624096105</v>
       </c>
       <c r="G9">
-        <v>0.0007910322438467859</v>
+        <v>0.0007940396907023271</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.261198536718954</v>
       </c>
       <c r="J9">
-        <v>0.08307784964119946</v>
+        <v>0.0934362763871377</v>
       </c>
       <c r="K9">
-        <v>0.6154374121948294</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3899290320797775</v>
       </c>
       <c r="M9">
-        <v>0.7156276993887261</v>
+        <v>0.6533481495115723</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.834643523541303</v>
+        <v>1.410593709107644</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.791283768652931</v>
+        <v>3.94191071216386</v>
       </c>
       <c r="C10">
-        <v>0.5582518076305405</v>
+        <v>0.580941168322596</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1239995923491755</v>
+        <v>0.07453964884939879</v>
       </c>
       <c r="F10">
-        <v>3.519098865558334</v>
+        <v>1.009442074826893</v>
       </c>
       <c r="G10">
-        <v>0.0007778217096778555</v>
+        <v>0.0007871771272764016</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2457178947312961</v>
       </c>
       <c r="J10">
-        <v>0.08780149469033205</v>
+        <v>0.1050939039301824</v>
       </c>
       <c r="K10">
-        <v>0.7418672688720207</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4462866327419306</v>
       </c>
       <c r="M10">
-        <v>0.857187423338388</v>
+        <v>0.774283889739678</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.103494645761714</v>
+        <v>1.483561817552129</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.012430158259917</v>
+        <v>4.227220739682252</v>
       </c>
       <c r="C11">
-        <v>0.6021703775489016</v>
+        <v>0.6127744894380669</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1310108401096635</v>
+        <v>0.07414601531502285</v>
       </c>
       <c r="F11">
-        <v>3.738699899088857</v>
+        <v>1.043777972953791</v>
       </c>
       <c r="G11">
-        <v>0.0007718809997246421</v>
+        <v>0.0007841262853455211</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2400502886342579</v>
       </c>
       <c r="J11">
-        <v>0.09021252855757922</v>
+        <v>0.1104200101089674</v>
       </c>
       <c r="K11">
-        <v>0.8008000874120924</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.472296953335416</v>
       </c>
       <c r="M11">
-        <v>0.9230771769429893</v>
+        <v>0.8296562490052324</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.232148258997938</v>
+        <v>1.52314178910251</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.097084871105949</v>
+        <v>4.335505316854153</v>
       </c>
       <c r="C12">
-        <v>0.6189820434813385</v>
+        <v>0.624851355522452</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1336897323399278</v>
+        <v>0.07401104956189819</v>
       </c>
       <c r="F12">
-        <v>3.82335761501065</v>
+        <v>1.057208838912388</v>
       </c>
       <c r="G12">
-        <v>0.0007696387160461837</v>
+        <v>0.000782980639931239</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2381159182980994</v>
       </c>
       <c r="J12">
-        <v>0.09116848240523723</v>
+        <v>0.1124408198160012</v>
       </c>
       <c r="K12">
-        <v>0.8233587502735418</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4822056782545445</v>
       </c>
       <c r="M12">
-        <v>0.9482793405397558</v>
+        <v>0.8506850729198447</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.281916212449119</v>
+        <v>1.539126463735755</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.078810004458262</v>
+        <v>4.312172717588794</v>
       </c>
       <c r="C13">
-        <v>0.6153527913452308</v>
+        <v>0.6222493135571767</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1331116841699966</v>
+        <v>0.07403948279679895</v>
       </c>
       <c r="F13">
-        <v>3.805055103616866</v>
+        <v>1.054296672632773</v>
       </c>
       <c r="G13">
-        <v>0.0007701213499249509</v>
+        <v>0.0007832269557639069</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2385228618356621</v>
       </c>
       <c r="J13">
-        <v>0.09096059951954771</v>
+        <v>0.1120054170971869</v>
       </c>
       <c r="K13">
-        <v>0.8184889134082738</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4800689321871516</v>
       </c>
       <c r="M13">
-        <v>0.9428398059535681</v>
+        <v>0.8461532967484615</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.271148754448618</v>
+        <v>1.535638245033709</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.019375619997788</v>
+        <v>4.236124227284677</v>
       </c>
       <c r="C14">
-        <v>0.6035496754355165</v>
+        <v>0.6137675846405841</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1312307417174949</v>
+        <v>0.07413462654370129</v>
       </c>
       <c r="F14">
-        <v>3.745633519804983</v>
+        <v>1.044874159700811</v>
       </c>
       <c r="G14">
-        <v>0.0007716963944647548</v>
+        <v>0.0007840318425373537</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2398868166562522</v>
       </c>
       <c r="J14">
-        <v>0.09029028219789836</v>
+        <v>0.1105861808535167</v>
       </c>
       <c r="K14">
-        <v>0.8026509151230528</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4731109307701047</v>
       </c>
       <c r="M14">
-        <v>0.9251453162743957</v>
+        <v>0.8313850359981103</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.236220820116429</v>
+        <v>1.524436415433428</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.983093497100754</v>
+        <v>4.189575443465628</v>
       </c>
       <c r="C15">
-        <v>0.5963444176105668</v>
+        <v>0.6085753335040351</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1300817917086654</v>
+        <v>0.07419475370698159</v>
       </c>
       <c r="F15">
-        <v>3.709437383403127</v>
+        <v>1.039159390488223</v>
       </c>
       <c r="G15">
-        <v>0.0007726620284296346</v>
+        <v>0.0007845260972675486</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2407503026368438</v>
       </c>
       <c r="J15">
-        <v>0.08988545399157744</v>
+        <v>0.1097173886665672</v>
       </c>
       <c r="K15">
-        <v>0.7929824222555695</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4688568328059688</v>
       </c>
       <c r="M15">
-        <v>0.9143407934217862</v>
+        <v>0.82234721042731</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.214967482152787</v>
+        <v>1.517707180234765</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.776950835051764</v>
+        <v>3.923296702166795</v>
       </c>
       <c r="C16">
-        <v>0.5554051730454148</v>
+        <v>0.5788636293542595</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1235446050006743</v>
+        <v>0.07456732186414428</v>
       </c>
       <c r="F16">
-        <v>3.504946446812795</v>
+        <v>1.007256351850202</v>
       </c>
       <c r="G16">
-        <v>0.0007782111220467059</v>
+        <v>0.0007873778877736642</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2461171343083421</v>
       </c>
       <c r="J16">
-        <v>0.08764963697386463</v>
+        <v>0.104746345123921</v>
       </c>
       <c r="K16">
-        <v>0.7380475677213738</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4445947672437427</v>
       </c>
       <c r="M16">
-        <v>0.8529144355808427</v>
+        <v>0.7706731364382904</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.095225905895902</v>
+        <v>1.481110240638799</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.651956936405327</v>
+        <v>3.760329943758279</v>
       </c>
       <c r="C17">
-        <v>0.5305785490336348</v>
+        <v>0.5606708148186499</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1195743098567803</v>
+        <v>0.07482051264087097</v>
       </c>
       <c r="F17">
-        <v>3.381959440443154</v>
+        <v>0.9884138341711406</v>
       </c>
       <c r="G17">
-        <v>0.0007816312116911126</v>
+        <v>0.0007891451576311452</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2497713427887582</v>
       </c>
       <c r="J17">
-        <v>0.08634871471043937</v>
+        <v>0.1017030873175386</v>
       </c>
       <c r="K17">
-        <v>0.7047358578599656</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4298101226332705</v>
       </c>
       <c r="M17">
-        <v>0.8156383959727975</v>
+        <v>0.7390706770877387</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.023486889234803</v>
+        <v>1.460348780081745</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.580559215039045</v>
+        <v>3.666724048397839</v>
       </c>
       <c r="C18">
-        <v>0.5163954093058862</v>
+        <v>0.5502178773320168</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1173047116151906</v>
+        <v>0.0749750555405484</v>
       </c>
       <c r="F18">
-        <v>3.312065728765589</v>
+        <v>0.9778339963486218</v>
       </c>
       <c r="G18">
-        <v>0.0007836050057871689</v>
+        <v>0.0007901683605644787</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2520016261917029</v>
       </c>
       <c r="J18">
-        <v>0.08562478897090386</v>
+        <v>0.09995480993477912</v>
       </c>
       <c r="K18">
-        <v>0.6857068864109834</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4213411356325878</v>
       </c>
       <c r="M18">
-        <v>0.7943363573653102</v>
+        <v>0.7209269016993147</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.982813280614124</v>
+        <v>1.449003440539684</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.556466283375812</v>
+        <v>3.635051460325769</v>
       </c>
       <c r="C19">
-        <v>0.5116089566575681</v>
+        <v>0.5466804556046156</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1165386061742062</v>
+        <v>0.0750288993307322</v>
       </c>
       <c r="F19">
-        <v>3.288540679791282</v>
+        <v>0.9742952107596778</v>
       </c>
       <c r="G19">
-        <v>0.0007842745135978098</v>
+        <v>0.0007905159696891114</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2527784132192821</v>
       </c>
       <c r="J19">
-        <v>0.08538371022847002</v>
+        <v>0.09936321989358277</v>
       </c>
       <c r="K19">
-        <v>0.6792854302570177</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4184794879136433</v>
       </c>
       <c r="M19">
-        <v>0.7871465438266156</v>
+        <v>0.7147891566782647</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.969139139882017</v>
+        <v>1.445262194548434</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.665210512796648</v>
+        <v>3.777664452933266</v>
       </c>
       <c r="C20">
-        <v>0.5332111945716633</v>
+        <v>0.5626062895592838</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1199954889574677</v>
+        <v>0.07479263439535622</v>
       </c>
       <c r="F20">
-        <v>3.394962848699265</v>
+        <v>0.990392741272359</v>
       </c>
       <c r="G20">
-        <v>0.0007812664666458465</v>
+        <v>0.0007889563375893119</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2493689495906146</v>
       </c>
       <c r="J20">
-        <v>0.08648464622647367</v>
+        <v>0.1020268231277086</v>
       </c>
       <c r="K20">
-        <v>0.7082681239130366</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4313803379418886</v>
       </c>
       <c r="M20">
-        <v>0.819591946230652</v>
+        <v>0.7424313215975644</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.031061761014442</v>
+        <v>1.462496630250456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.036806998288625</v>
+        <v>4.258454528887512</v>
       </c>
       <c r="C21">
-        <v>0.607011372991451</v>
+        <v>0.6162582285580527</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.131782552706774</v>
+        <v>0.07410629440460959</v>
       </c>
       <c r="F21">
-        <v>3.763044757629189</v>
+        <v>1.047629885232425</v>
       </c>
       <c r="G21">
-        <v>0.0007712335887029054</v>
+        <v>0.0007837951708249449</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2394803230903122</v>
       </c>
       <c r="J21">
-        <v>0.09048595979814422</v>
+        <v>0.1110029331002949</v>
       </c>
       <c r="K21">
-        <v>0.8072960215568727</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.475153012024478</v>
       </c>
       <c r="M21">
-        <v>0.930335488378482</v>
+        <v>0.8357211143932304</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.246450342417404</v>
+        <v>1.527698964105383</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.285057594545151</v>
+        <v>4.574122884683788</v>
       </c>
       <c r="C22">
-        <v>0.6563141341863741</v>
+        <v>0.6514552957349338</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1396265268481685</v>
+        <v>0.07374010672965703</v>
       </c>
       <c r="F22">
-        <v>4.012453568159572</v>
+        <v>1.087552215480613</v>
       </c>
       <c r="G22">
-        <v>0.0007647178440717704</v>
+        <v>0.0007804779617737161</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2342595680710637</v>
       </c>
       <c r="J22">
-        <v>0.09335434318732894</v>
+        <v>0.1168925661088736</v>
       </c>
       <c r="K22">
-        <v>0.8734488891896888</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5041088140242778</v>
       </c>
       <c r="M22">
-        <v>1.00419693635429</v>
+        <v>0.8970488163986587</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.393413544288251</v>
+        <v>1.576162043428013</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.152017153407996</v>
+        <v>4.40549724888541</v>
       </c>
       <c r="C23">
-        <v>0.629891342911435</v>
+        <v>0.6326561233938151</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1354263895007968</v>
+        <v>0.07392786039743093</v>
       </c>
       <c r="F23">
-        <v>3.878461189542435</v>
+        <v>1.066003811857854</v>
       </c>
       <c r="G23">
-        <v>0.0007681925710927247</v>
+        <v>0.0007822434992698026</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2369273839393848</v>
       </c>
       <c r="J23">
-        <v>0.09179833559675643</v>
+        <v>0.1137468139269586</v>
       </c>
       <c r="K23">
-        <v>0.8379969024910281</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4886207887062284</v>
       </c>
       <c r="M23">
-        <v>0.9646266545059135</v>
+        <v>0.8642811921536619</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.314360040468102</v>
+        <v>1.549733733004217</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.65921713932471</v>
+        <v>3.769827257137763</v>
       </c>
       <c r="C24">
-        <v>0.5320206973671588</v>
+        <v>0.5617312419996665</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1198050336316818</v>
+        <v>0.0748052102115313</v>
       </c>
       <c r="F24">
-        <v>3.389081489023994</v>
+        <v>0.9894972917652893</v>
       </c>
       <c r="G24">
-        <v>0.0007814313442033981</v>
+        <v>0.0007890416807236385</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2495504694677209</v>
       </c>
       <c r="J24">
-        <v>0.08642311724611318</v>
+        <v>0.1018804580652954</v>
       </c>
       <c r="K24">
-        <v>0.7066708080694397</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4306703477623017</v>
       </c>
       <c r="M24">
-        <v>0.8178041487474061</v>
+        <v>0.7409118973317632</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.027635395799535</v>
+        <v>1.461523753134543</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.146168682608334</v>
+        <v>3.088908903690765</v>
       </c>
       <c r="C25">
-        <v>0.4300495168566556</v>
+        <v>0.4856348133566257</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1034833123819396</v>
+        <v>0.07609083808259776</v>
       </c>
       <c r="F25">
-        <v>2.89293563906952</v>
+        <v>0.9167222507796566</v>
       </c>
       <c r="G25">
-        <v>0.0007959736251534631</v>
+        <v>0.0007966333794858782</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2680296481146804</v>
       </c>
       <c r="J25">
-        <v>0.08153954899214</v>
+        <v>0.08915973051799853</v>
       </c>
       <c r="K25">
-        <v>0.569909179448949</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3694706544544033</v>
       </c>
       <c r="M25">
-        <v>0.6646022798920299</v>
+        <v>0.6090734436452507</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.740450891107628</v>
+        <v>1.388896084264445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.590077467982724</v>
+        <v>1.113143423883969</v>
       </c>
       <c r="C2">
-        <v>0.429783187263979</v>
+        <v>0.2653531116876309</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07731445678112259</v>
+        <v>0.2269633380091669</v>
       </c>
       <c r="F2">
-        <v>0.8704464260960663</v>
+        <v>1.82366755224642</v>
       </c>
       <c r="G2">
-        <v>0.0008024658252258066</v>
+        <v>0.002449352365023655</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2853445453493286</v>
+        <v>0.802839715008556</v>
       </c>
       <c r="J2">
-        <v>0.07983864434527277</v>
+        <v>0.05239605534474379</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3253386734378978</v>
+        <v>0.4833106585977447</v>
       </c>
       <c r="M2">
-        <v>0.5127408087857361</v>
+        <v>0.330598998055784</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.352151928757465</v>
+        <v>2.963893769994129</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.25289202065602</v>
+        <v>1.00875966013723</v>
       </c>
       <c r="C3">
-        <v>0.3919666143973473</v>
+        <v>0.2526534927238515</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07830965825762171</v>
+        <v>0.2283157693032791</v>
       </c>
       <c r="F3">
-        <v>0.8431514394959976</v>
+        <v>1.83257478891781</v>
       </c>
       <c r="G3">
-        <v>0.0008065791971180215</v>
+        <v>0.002452060249102687</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2991761628072034</v>
+        <v>0.8146725878548011</v>
       </c>
       <c r="J3">
-        <v>0.07353962670954672</v>
+        <v>0.05026012193944496</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2959204078887296</v>
+        <v>0.4770610312162376</v>
       </c>
       <c r="M3">
-        <v>0.4477717406148827</v>
+        <v>0.3116502185809864</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.336486964340082</v>
+        <v>2.99206698316695</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.04608475380013</v>
+        <v>0.9446429269162877</v>
       </c>
       <c r="C4">
-        <v>0.3687417608378496</v>
+        <v>0.24480957004441</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07900043261801404</v>
+        <v>0.2292089849096932</v>
       </c>
       <c r="F4">
-        <v>0.828247058158027</v>
+        <v>1.839090532117787</v>
       </c>
       <c r="G4">
-        <v>0.0008091869181416072</v>
+        <v>0.002453811730133503</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3086366842599872</v>
+        <v>0.8224513195235126</v>
       </c>
       <c r="J4">
-        <v>0.06967788020714494</v>
+        <v>0.04894679596576879</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2780724885906096</v>
+        <v>0.4733746686494698</v>
       </c>
       <c r="M4">
-        <v>0.4079934830177265</v>
+        <v>0.300068353366477</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.331057390893662</v>
+        <v>3.011454396790171</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.96183873511211</v>
+        <v>0.9185103843911975</v>
       </c>
       <c r="C5">
-        <v>0.3592731855512596</v>
+        <v>0.2416016587374656</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0793016702408158</v>
+        <v>0.2295888027158037</v>
       </c>
       <c r="F5">
-        <v>0.8226186730524176</v>
+        <v>1.842008979656306</v>
       </c>
       <c r="G5">
-        <v>0.0008102706213522426</v>
+        <v>0.002454547875825606</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3127258687669752</v>
+        <v>0.8257501801982237</v>
       </c>
       <c r="J5">
-        <v>0.06810528028074714</v>
+        <v>0.048411180936764</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2708497554864806</v>
+        <v>0.471910590635062</v>
       </c>
       <c r="M5">
-        <v>0.3918062325159966</v>
+        <v>0.2953622613861313</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.329846519450598</v>
+        <v>3.019879653926509</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.947850776429618</v>
+        <v>0.9141708785122091</v>
       </c>
       <c r="C6">
-        <v>0.3577005973448877</v>
+        <v>0.2410683017782418</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0793528741946723</v>
+        <v>0.2296528278361505</v>
       </c>
       <c r="F6">
-        <v>0.82171037793929</v>
+        <v>1.842509485139963</v>
       </c>
       <c r="G6">
-        <v>0.000810451851045096</v>
+        <v>0.002454671467126072</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3134187371958532</v>
+        <v>0.8263057394293298</v>
       </c>
       <c r="J6">
-        <v>0.06784420657614376</v>
+        <v>0.04832221810688964</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2696533702923318</v>
+        <v>0.4716697910760388</v>
       </c>
       <c r="M6">
-        <v>0.389119563765199</v>
+        <v>0.2945816507261299</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.329704496911276</v>
+        <v>3.021310337517093</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.044948497240341</v>
+        <v>0.9442905100059988</v>
       </c>
       <c r="C7">
-        <v>0.3686140852698117</v>
+        <v>0.2447663531268063</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0790044156739178</v>
+        <v>0.2292140431507104</v>
       </c>
       <c r="F7">
-        <v>0.8281693761157882</v>
+        <v>1.839128825468933</v>
       </c>
       <c r="G7">
-        <v>0.0008092014477029923</v>
+        <v>0.002453821567092257</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3086908973293809</v>
+        <v>0.8224952870864826</v>
       </c>
       <c r="J7">
-        <v>0.06965666763672829</v>
+        <v>0.04893957413517924</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2779748807105591</v>
+        <v>0.4733547688803839</v>
       </c>
       <c r="M7">
-        <v>0.4077750914161271</v>
+        <v>0.3000048297904812</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.33103707101867</v>
+        <v>3.011565898889202</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473751998214539</v>
+        <v>1.077158039850019</v>
       </c>
       <c r="C8">
-        <v>0.4167433030856387</v>
+        <v>0.2609840062850992</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07764087040874834</v>
+        <v>0.2274166361918013</v>
       </c>
       <c r="F8">
-        <v>0.8606370895109734</v>
+        <v>1.826521552243399</v>
       </c>
       <c r="G8">
-        <v>0.0008038673193818369</v>
+        <v>0.002450267646907911</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2899069961265326</v>
+        <v>0.8068130896847414</v>
       </c>
       <c r="J8">
-        <v>0.07766528178616738</v>
+        <v>0.05165999493734574</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3151483740562782</v>
+        <v>0.4811245724343394</v>
       </c>
       <c r="M8">
-        <v>0.4903124532307643</v>
+        <v>0.324054708116158</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.345849415017128</v>
+        <v>2.973173999076252</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.317786301283661</v>
+        <v>1.337451232757473</v>
       </c>
       <c r="C9">
-        <v>0.5112295450257704</v>
+        <v>0.2924123275631132</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0756137897613236</v>
+        <v>0.224389049115997</v>
       </c>
       <c r="F9">
-        <v>0.940032624096105</v>
+        <v>1.810103303341535</v>
       </c>
       <c r="G9">
-        <v>0.0007940396907023271</v>
+        <v>0.002444000210704052</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.261198536718954</v>
+        <v>0.7801377653054544</v>
       </c>
       <c r="J9">
-        <v>0.0934362763871377</v>
+        <v>0.05697843096520927</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3899290320797775</v>
+        <v>0.49755146535351</v>
       </c>
       <c r="M9">
-        <v>0.6533481495115723</v>
+        <v>0.3716224634878174</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.410593709107644</v>
+        <v>2.914488497289568</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.94191071216386</v>
+        <v>1.528464062253931</v>
       </c>
       <c r="C10">
-        <v>0.580941168322596</v>
+        <v>0.3152672224410367</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07453964884939879</v>
+        <v>0.2224659577879695</v>
       </c>
       <c r="F10">
-        <v>1.009442074826893</v>
+        <v>1.803105278263743</v>
       </c>
       <c r="G10">
-        <v>0.0007871771272764016</v>
+        <v>0.002439819105266188</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2457178947312961</v>
+        <v>0.7630310530553643</v>
       </c>
       <c r="J10">
-        <v>0.1050939039301824</v>
+        <v>0.06087420600434257</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4462866327419306</v>
+        <v>0.510337874178262</v>
       </c>
       <c r="M10">
-        <v>0.774283889739678</v>
+        <v>0.4068047518327376</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.483561817552129</v>
+        <v>2.881530186508456</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.227220739682252</v>
+        <v>1.615299300942809</v>
       </c>
       <c r="C11">
-        <v>0.6127744894380669</v>
+        <v>0.3256120033708498</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07414601531502285</v>
+        <v>0.2216561361554881</v>
       </c>
       <c r="F11">
-        <v>1.043777972953791</v>
+        <v>1.801021915756124</v>
       </c>
       <c r="G11">
-        <v>0.0007841262853455211</v>
+        <v>0.002438008083947485</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2400502886342579</v>
+        <v>0.7557910712695097</v>
       </c>
       <c r="J11">
-        <v>0.1104200101089674</v>
+        <v>0.06264361751204461</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.472296953335416</v>
+        <v>0.516308956145906</v>
       </c>
       <c r="M11">
-        <v>0.8296562490052324</v>
+        <v>0.4228583997977182</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.52314178910251</v>
+        <v>2.868750480347074</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.335505316854153</v>
+        <v>1.648171813406009</v>
       </c>
       <c r="C12">
-        <v>0.624851355522452</v>
+        <v>0.3295216602717801</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07401104956189819</v>
+        <v>0.2213587956741101</v>
       </c>
       <c r="F12">
-        <v>1.057208838912388</v>
+        <v>1.800391198802529</v>
       </c>
       <c r="G12">
-        <v>0.000782980639931239</v>
+        <v>0.002437335312475567</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2381159182980994</v>
+        <v>0.7531275304012759</v>
       </c>
       <c r="J12">
-        <v>0.1124408198160012</v>
+        <v>0.06331320883512603</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4822056782545445</v>
+        <v>0.5185920958910657</v>
       </c>
       <c r="M12">
-        <v>0.8506850729198447</v>
+        <v>0.4289442597687128</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.539126463735755</v>
+        <v>2.864230044061912</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.312172717588794</v>
+        <v>1.64109260847016</v>
       </c>
       <c r="C13">
-        <v>0.6222493135571767</v>
+        <v>0.3286799908496505</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07403948279679895</v>
+        <v>0.2214224191059042</v>
       </c>
       <c r="F13">
-        <v>1.054296672632773</v>
+        <v>1.800519998407296</v>
       </c>
       <c r="G13">
-        <v>0.0007832269557639069</v>
+        <v>0.00243747962770508</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2385228618356621</v>
+        <v>0.7536976964034352</v>
       </c>
       <c r="J13">
-        <v>0.1120054170971869</v>
+        <v>0.06316902091988652</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4800689321871516</v>
+        <v>0.5180994045981322</v>
       </c>
       <c r="M13">
-        <v>0.8461532967484615</v>
+        <v>0.4276332690367255</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.535638245033709</v>
+        <v>2.865189403804095</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.236124227284677</v>
+        <v>1.618003955425081</v>
       </c>
       <c r="C14">
-        <v>0.6137675846405841</v>
+        <v>0.3259338084307899</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07413462654370129</v>
+        <v>0.2216314871081444</v>
       </c>
       <c r="F14">
-        <v>1.044874159700811</v>
+        <v>1.800966855487758</v>
       </c>
       <c r="G14">
-        <v>0.0007840318425373537</v>
+        <v>0.002437952474103846</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2398868166562522</v>
+        <v>0.7555703743893076</v>
       </c>
       <c r="J14">
-        <v>0.1105861808535167</v>
+        <v>0.06269871439277352</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4731109307701047</v>
+        <v>0.5164963512072944</v>
       </c>
       <c r="M14">
-        <v>0.8313850359981103</v>
+        <v>0.4233589551054493</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.524436415433428</v>
+        <v>2.868372184843963</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.189575443465628</v>
+        <v>1.603860117885063</v>
       </c>
       <c r="C15">
-        <v>0.6085753335040351</v>
+        <v>0.3242506852358815</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07419475370698159</v>
+        <v>0.221760760451696</v>
       </c>
       <c r="F15">
-        <v>1.039159390488223</v>
+        <v>1.801261172105043</v>
       </c>
       <c r="G15">
-        <v>0.0007845260972675486</v>
+        <v>0.002438243800347239</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2407503026368438</v>
+        <v>0.7567276169521726</v>
       </c>
       <c r="J15">
-        <v>0.1097173886665672</v>
+        <v>0.06241057861817723</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4688568328059688</v>
+        <v>0.5155172967193522</v>
       </c>
       <c r="M15">
-        <v>0.82234721042731</v>
+        <v>0.4207416752060453</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.517707180234765</v>
+        <v>2.870363289187026</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.923296702166795</v>
+        <v>1.522787860922278</v>
       </c>
       <c r="C16">
-        <v>0.5788636293542595</v>
+        <v>0.3145901021437112</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07456732186414428</v>
+        <v>0.2225201873356539</v>
       </c>
       <c r="F16">
-        <v>1.007256351850202</v>
+        <v>1.803263568773417</v>
       </c>
       <c r="G16">
-        <v>0.0007873778877736642</v>
+        <v>0.002439939285456908</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2461171343083421</v>
+        <v>0.7635151212351197</v>
       </c>
       <c r="J16">
-        <v>0.104746345123921</v>
+        <v>0.06075851073887151</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4445947672437427</v>
+        <v>0.5099507419118368</v>
       </c>
       <c r="M16">
-        <v>0.7706731364382904</v>
+        <v>0.4057565642331227</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.481110240638799</v>
+        <v>2.882409965956782</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.760329943758279</v>
+        <v>1.473036623588087</v>
       </c>
       <c r="C17">
-        <v>0.5606708148186499</v>
+        <v>0.3086501752074753</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07482051264087097</v>
+        <v>0.2230027013422866</v>
       </c>
       <c r="F17">
-        <v>0.9884138341711406</v>
+        <v>1.804773742893559</v>
       </c>
       <c r="G17">
-        <v>0.0007891451576311452</v>
+        <v>0.002441002670717363</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2497713427887582</v>
+        <v>0.7678179490365942</v>
       </c>
       <c r="J17">
-        <v>0.1017030873175386</v>
+        <v>0.05974427280484207</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4298101226332705</v>
+        <v>0.5065752690599368</v>
       </c>
       <c r="M17">
-        <v>0.7390706770877387</v>
+        <v>0.396575988758407</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.460348780081745</v>
+        <v>2.890367567901876</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.666724048397839</v>
+        <v>1.444415729179241</v>
       </c>
       <c r="C18">
-        <v>0.5502178773320168</v>
+        <v>0.3052288016466775</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0749750555405484</v>
+        <v>0.2232863504965188</v>
       </c>
       <c r="F18">
-        <v>0.9778339963486218</v>
+        <v>1.80574589832284</v>
       </c>
       <c r="G18">
-        <v>0.0007901683605644787</v>
+        <v>0.002441622869373832</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2520016261917029</v>
+        <v>0.770343823378667</v>
       </c>
       <c r="J18">
-        <v>0.09995480993477912</v>
+        <v>0.05916064941778387</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4213411356325878</v>
+        <v>0.5046483383071063</v>
       </c>
       <c r="M18">
-        <v>0.7209269016993147</v>
+        <v>0.3913002026850165</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.449003440539684</v>
+        <v>2.895152844398609</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.635051460325769</v>
+        <v>1.434724332553515</v>
       </c>
       <c r="C19">
-        <v>0.5466804556046156</v>
+        <v>0.304069550703872</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0750288993307322</v>
+        <v>0.2233834411074529</v>
       </c>
       <c r="F19">
-        <v>0.9742952107596778</v>
+        <v>1.806092836527057</v>
       </c>
       <c r="G19">
-        <v>0.0007905159696891114</v>
+        <v>0.002441834331426195</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2527784132192821</v>
+        <v>0.7712077959791763</v>
       </c>
       <c r="J19">
-        <v>0.09936321989358277</v>
+        <v>0.0589630011729696</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4184794879136433</v>
+        <v>0.5039984178834516</v>
       </c>
       <c r="M19">
-        <v>0.7147891566782647</v>
+        <v>0.389514719818429</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.445262194548434</v>
+        <v>2.896808806546517</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.777664452933266</v>
+        <v>1.478333289531179</v>
       </c>
       <c r="C20">
-        <v>0.5626062895592838</v>
+        <v>0.309282997615469</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07479263439535622</v>
+        <v>0.2229507037077703</v>
       </c>
       <c r="F20">
-        <v>0.990392741272359</v>
+        <v>1.804602265809933</v>
       </c>
       <c r="G20">
-        <v>0.0007889563375893119</v>
+        <v>0.002440888585477498</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2493689495906146</v>
+        <v>0.7673546260963242</v>
       </c>
       <c r="J20">
-        <v>0.1020268231277086</v>
+        <v>0.05985226745269046</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4313803379418886</v>
+        <v>0.5069330892398227</v>
       </c>
       <c r="M20">
-        <v>0.7424313215975644</v>
+        <v>0.3975527992861245</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.462496630250456</v>
+        <v>2.889498906844864</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.258454528887512</v>
+        <v>1.624785941465916</v>
       </c>
       <c r="C21">
-        <v>0.6162582285580527</v>
+        <v>0.3267406390342273</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07410629440460959</v>
+        <v>0.2215698259935532</v>
       </c>
       <c r="F21">
-        <v>1.047629885232425</v>
+        <v>1.80083130889831</v>
       </c>
       <c r="G21">
-        <v>0.0007837951708249449</v>
+        <v>0.002437813234765628</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2394803230903122</v>
+        <v>0.7550182031093371</v>
       </c>
       <c r="J21">
-        <v>0.1110029331002949</v>
+        <v>0.06283686728733784</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.475153012024478</v>
+        <v>0.5169666107524051</v>
       </c>
       <c r="M21">
-        <v>0.8357211143932304</v>
+        <v>0.424614245968904</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.527698964105383</v>
+        <v>2.867428662775609</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.574122884683788</v>
+        <v>1.720441452784826</v>
       </c>
       <c r="C22">
-        <v>0.6514552957349338</v>
+        <v>0.3381053162801777</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07374010672965703</v>
+        <v>0.2207216628858379</v>
       </c>
       <c r="F22">
-        <v>1.087552215480613</v>
+        <v>1.799288930466929</v>
       </c>
       <c r="G22">
-        <v>0.0007804779617737161</v>
+        <v>0.002435879195652992</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2342595680710637</v>
+        <v>0.7474108358853861</v>
       </c>
       <c r="J22">
-        <v>0.1168925661088736</v>
+        <v>0.0647848534332951</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5041088140242778</v>
+        <v>0.5236523606862136</v>
       </c>
       <c r="M22">
-        <v>0.8970488163986587</v>
+        <v>0.4423393052639213</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.576162043428013</v>
+        <v>2.854863957184705</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.40549724888541</v>
+        <v>1.669394380660833</v>
       </c>
       <c r="C23">
-        <v>0.6326561233938151</v>
+        <v>0.3320439500865007</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07392786039743093</v>
+        <v>0.2211693817008644</v>
       </c>
       <c r="F23">
-        <v>1.066003811857854</v>
+        <v>1.800027743670668</v>
       </c>
       <c r="G23">
-        <v>0.0007822434992698026</v>
+        <v>0.002436904505353941</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2369273839393848</v>
+        <v>0.7514293301963413</v>
       </c>
       <c r="J23">
-        <v>0.1137468139269586</v>
+        <v>0.06374543107812514</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4886207887062284</v>
+        <v>0.5200723777308127</v>
       </c>
       <c r="M23">
-        <v>0.8642811921536619</v>
+        <v>0.432875672458465</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.549733733004217</v>
+        <v>2.861399602438723</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.769827257137763</v>
+        <v>1.475938723551792</v>
       </c>
       <c r="C24">
-        <v>0.5617312419996665</v>
+        <v>0.3089969186212045</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0748052102115313</v>
+        <v>0.2229741923827753</v>
       </c>
       <c r="F24">
-        <v>0.9894972917652893</v>
+        <v>1.804679466846068</v>
       </c>
       <c r="G24">
-        <v>0.0007890416807236385</v>
+        <v>0.002440940135898423</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2495504694677209</v>
+        <v>0.7675639320525924</v>
       </c>
       <c r="J24">
-        <v>0.1018804580652954</v>
+        <v>0.05980344470265919</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4306703477623017</v>
+        <v>0.506771276131488</v>
       </c>
       <c r="M24">
-        <v>0.7409118973317632</v>
+        <v>0.3971111762140538</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.461523753134543</v>
+        <v>2.889890973343739</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.088908903690765</v>
+        <v>1.267069733252924</v>
       </c>
       <c r="C25">
-        <v>0.4856348133566257</v>
+        <v>0.2839509752973015</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07609083808259776</v>
+        <v>0.2251550558986093</v>
       </c>
       <c r="F25">
-        <v>0.9167222507796566</v>
+        <v>1.813655624748918</v>
       </c>
       <c r="G25">
-        <v>0.0007966333794858782</v>
+        <v>0.002445621027913569</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2680296481146804</v>
+        <v>0.7869170167233293</v>
       </c>
       <c r="J25">
-        <v>0.08915973051799853</v>
+        <v>0.05554157966538753</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3694706544544033</v>
+        <v>0.4929809615317282</v>
       </c>
       <c r="M25">
-        <v>0.6090734436452507</v>
+        <v>0.3587120385928486</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.388896084264445</v>
+        <v>2.9285833456033</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.113143423883969</v>
+        <v>2.590077467982724</v>
       </c>
       <c r="C2">
-        <v>0.2653531116876309</v>
+        <v>0.429783187264178</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2269633380091669</v>
+        <v>0.07731445678112436</v>
       </c>
       <c r="F2">
-        <v>1.82366755224642</v>
+        <v>0.8704464260960663</v>
       </c>
       <c r="G2">
-        <v>0.002449352365023655</v>
+        <v>0.0008024658251661321</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.802839715008556</v>
+        <v>0.2853445453493144</v>
       </c>
       <c r="J2">
-        <v>0.05239605534474379</v>
+        <v>0.07983864434523014</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4833106585977447</v>
+        <v>0.3253386734378694</v>
       </c>
       <c r="M2">
-        <v>0.330598998055784</v>
+        <v>0.5127408087857432</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.963893769994129</v>
+        <v>1.352151928757436</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.00875966013723</v>
+        <v>2.25289202065602</v>
       </c>
       <c r="C3">
-        <v>0.2526534927238515</v>
+        <v>0.3919666143976315</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2283157693032791</v>
+        <v>0.07830965825761638</v>
       </c>
       <c r="F3">
-        <v>1.83257478891781</v>
+        <v>0.8431514394959976</v>
       </c>
       <c r="G3">
-        <v>0.002452060249102687</v>
+        <v>0.0008065791972145568</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8146725878548011</v>
+        <v>0.2991761628072211</v>
       </c>
       <c r="J3">
-        <v>0.05026012193944496</v>
+        <v>0.0735396267095112</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4770610312162376</v>
+        <v>0.2959204078887296</v>
       </c>
       <c r="M3">
-        <v>0.3116502185809864</v>
+        <v>0.4477717406148827</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.99206698316695</v>
+        <v>1.336486964340153</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9446429269162877</v>
+        <v>2.04608475380013</v>
       </c>
       <c r="C4">
-        <v>0.24480957004441</v>
+        <v>0.3687417608373238</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2292089849096932</v>
+        <v>0.07900043261804068</v>
       </c>
       <c r="F4">
-        <v>1.839090532117787</v>
+        <v>0.828247058158027</v>
       </c>
       <c r="G4">
-        <v>0.002453811730133503</v>
+        <v>0.0008091869181984603</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8224513195235126</v>
+        <v>0.3086366842599801</v>
       </c>
       <c r="J4">
-        <v>0.04894679596576879</v>
+        <v>0.06967788020709875</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4733746686494698</v>
+        <v>0.2780724885907091</v>
       </c>
       <c r="M4">
-        <v>0.300068353366477</v>
+        <v>0.4079934830177478</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.011454396790171</v>
+        <v>1.331057390893676</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9185103843911975</v>
+        <v>1.961838735112053</v>
       </c>
       <c r="C5">
-        <v>0.2416016587374656</v>
+        <v>0.3592731855512881</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2295888027158037</v>
+        <v>0.07930167024080337</v>
       </c>
       <c r="F5">
-        <v>1.842008979656306</v>
+        <v>0.8226186730524034</v>
       </c>
       <c r="G5">
-        <v>0.002454547875825606</v>
+        <v>0.0008102706212750821</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8257501801982237</v>
+        <v>0.3127258687669681</v>
       </c>
       <c r="J5">
-        <v>0.048411180936764</v>
+        <v>0.06810528028070095</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.471910590635062</v>
+        <v>0.2708497554866085</v>
       </c>
       <c r="M5">
-        <v>0.2953622613861313</v>
+        <v>0.3918062325160037</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.019879653926509</v>
+        <v>1.329846519450555</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9141708785122091</v>
+        <v>1.947850776429675</v>
       </c>
       <c r="C6">
-        <v>0.2410683017782418</v>
+        <v>0.3577005973448735</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2296528278361505</v>
+        <v>0.07935287419465009</v>
       </c>
       <c r="F6">
-        <v>1.842509485139963</v>
+        <v>0.8217103779393113</v>
       </c>
       <c r="G6">
-        <v>0.002454671467126072</v>
+        <v>0.0008104518510440492</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8263057394293298</v>
+        <v>0.3134187371958497</v>
       </c>
       <c r="J6">
-        <v>0.04832221810688964</v>
+        <v>0.06784420657610113</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4716697910760388</v>
+        <v>0.2696533702923745</v>
       </c>
       <c r="M6">
-        <v>0.2945816507261299</v>
+        <v>0.3891195637651848</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.021310337517093</v>
+        <v>1.329704496911376</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9442905100059988</v>
+        <v>2.044948497240398</v>
       </c>
       <c r="C7">
-        <v>0.2447663531268063</v>
+        <v>0.3686140852693427</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2292140431507104</v>
+        <v>0.0790044156739107</v>
       </c>
       <c r="F7">
-        <v>1.839128825468933</v>
+        <v>0.8281693761157811</v>
       </c>
       <c r="G7">
-        <v>0.002453821567092257</v>
+        <v>0.000809201447761501</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8224952870864826</v>
+        <v>0.3086908973293774</v>
       </c>
       <c r="J7">
-        <v>0.04893957413517924</v>
+        <v>0.06965666763678158</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4733547688803839</v>
+        <v>0.2779748807105165</v>
       </c>
       <c r="M7">
-        <v>0.3000048297904812</v>
+        <v>0.4077750914161129</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.011565898889202</v>
+        <v>1.331037071018713</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.077158039850019</v>
+        <v>2.473751998214652</v>
       </c>
       <c r="C8">
-        <v>0.2609840062850992</v>
+        <v>0.4167433030859229</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2274166361918013</v>
+        <v>0.07764087040875367</v>
       </c>
       <c r="F8">
-        <v>1.826521552243399</v>
+        <v>0.8606370895109805</v>
       </c>
       <c r="G8">
-        <v>0.002450267646907911</v>
+        <v>0.0008038673194983179</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8068130896847414</v>
+        <v>0.2899069961265361</v>
       </c>
       <c r="J8">
-        <v>0.05165999493734574</v>
+        <v>0.07766528178617449</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4811245724343394</v>
+        <v>0.3151483740561787</v>
       </c>
       <c r="M8">
-        <v>0.324054708116158</v>
+        <v>0.4903124532307643</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.973173999076252</v>
+        <v>1.345849415017113</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.337451232757473</v>
+        <v>3.317786301283718</v>
       </c>
       <c r="C9">
-        <v>0.2924123275631132</v>
+        <v>0.5112295450255999</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.224389049115997</v>
+        <v>0.07561378976131294</v>
       </c>
       <c r="F9">
-        <v>1.810103303341535</v>
+        <v>0.9400326240960908</v>
       </c>
       <c r="G9">
-        <v>0.002444000210704052</v>
+        <v>0.0007940396906449543</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7801377653054544</v>
+        <v>0.2611985367189718</v>
       </c>
       <c r="J9">
-        <v>0.05697843096520927</v>
+        <v>0.09343627638712348</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.49755146535351</v>
+        <v>0.3899290320797775</v>
       </c>
       <c r="M9">
-        <v>0.3716224634878174</v>
+        <v>0.6533481495115723</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.914488497289568</v>
+        <v>1.410593709107559</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.528464062253931</v>
+        <v>3.941910712163917</v>
       </c>
       <c r="C10">
-        <v>0.3152672224410367</v>
+        <v>0.5809411683226529</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2224659577879695</v>
+        <v>0.07453964884939168</v>
       </c>
       <c r="F10">
-        <v>1.803105278263743</v>
+        <v>1.009442074826879</v>
       </c>
       <c r="G10">
-        <v>0.002439819105266188</v>
+        <v>0.0007871771272460504</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7630310530553643</v>
+        <v>0.2457178947313139</v>
       </c>
       <c r="J10">
-        <v>0.06087420600434257</v>
+        <v>0.1050939039301753</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.510337874178262</v>
+        <v>0.4462866327418737</v>
       </c>
       <c r="M10">
-        <v>0.4068047518327376</v>
+        <v>0.7742838897396709</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.881530186508456</v>
+        <v>1.483561817552157</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.615299300942809</v>
+        <v>4.227220739682195</v>
       </c>
       <c r="C11">
-        <v>0.3256120033708498</v>
+        <v>0.6127744894377827</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2216561361554881</v>
+        <v>0.07414601531500509</v>
       </c>
       <c r="F11">
-        <v>1.801021915756124</v>
+        <v>1.043777972953791</v>
       </c>
       <c r="G11">
-        <v>0.002438008083947485</v>
+        <v>0.0007841262853735318</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7557910712695097</v>
+        <v>0.2400502886342686</v>
       </c>
       <c r="J11">
-        <v>0.06264361751204461</v>
+        <v>0.1104200101088892</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.516308956145906</v>
+        <v>0.4722969533354302</v>
       </c>
       <c r="M11">
-        <v>0.4228583997977182</v>
+        <v>0.8296562490052253</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.868750480347074</v>
+        <v>1.523141789102596</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.648171813406009</v>
+        <v>4.335505316854096</v>
       </c>
       <c r="C12">
-        <v>0.3295216602717801</v>
+        <v>0.6248513555221962</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2213587956741101</v>
+        <v>0.07401104956186799</v>
       </c>
       <c r="F12">
-        <v>1.800391198802529</v>
+        <v>1.057208838912388</v>
       </c>
       <c r="G12">
-        <v>0.002437335312475567</v>
+        <v>0.00078298063992982</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7531275304012759</v>
+        <v>0.238115918298103</v>
       </c>
       <c r="J12">
-        <v>0.06331320883512603</v>
+        <v>0.1124408198160154</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5185920958910657</v>
+        <v>0.4822056782546014</v>
       </c>
       <c r="M12">
-        <v>0.4289442597687128</v>
+        <v>0.8506850729198376</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.864230044061912</v>
+        <v>1.539126463735755</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.64109260847016</v>
+        <v>4.312172717588851</v>
       </c>
       <c r="C13">
-        <v>0.3286799908496505</v>
+        <v>0.6222493135571767</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2214224191059042</v>
+        <v>0.07403948279677941</v>
       </c>
       <c r="F13">
-        <v>1.800519998407296</v>
+        <v>1.054296672632788</v>
       </c>
       <c r="G13">
-        <v>0.00243747962770508</v>
+        <v>0.0007832269557064222</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7536976964034352</v>
+        <v>0.2385228618356798</v>
       </c>
       <c r="J13">
-        <v>0.06316902091988652</v>
+        <v>0.1120054170972082</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5180994045981322</v>
+        <v>0.480068932187109</v>
       </c>
       <c r="M13">
-        <v>0.4276332690367255</v>
+        <v>0.8461532967484473</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.865189403804095</v>
+        <v>1.535638245033709</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.618003955425081</v>
+        <v>4.23612422728479</v>
       </c>
       <c r="C14">
-        <v>0.3259338084307899</v>
+        <v>0.6137675846405273</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2216314871081444</v>
+        <v>0.07413462654369063</v>
       </c>
       <c r="F14">
-        <v>1.800966855487758</v>
+        <v>1.044874159700797</v>
       </c>
       <c r="G14">
-        <v>0.002437952474103846</v>
+        <v>0.0007840318425092479</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7555703743893076</v>
+        <v>0.2398868166562238</v>
       </c>
       <c r="J14">
-        <v>0.06269871439277352</v>
+        <v>0.110586180853474</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5164963512072944</v>
+        <v>0.473110930769991</v>
       </c>
       <c r="M14">
-        <v>0.4233589551054493</v>
+        <v>0.8313850359981032</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.868372184843963</v>
+        <v>1.524436415433428</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.603860117885063</v>
+        <v>4.189575443465685</v>
       </c>
       <c r="C15">
-        <v>0.3242506852358815</v>
+        <v>0.6085753335039499</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.221760760451696</v>
+        <v>0.07419475370701001</v>
       </c>
       <c r="F15">
-        <v>1.801261172105043</v>
+        <v>1.039159390488223</v>
       </c>
       <c r="G15">
-        <v>0.002438243800347239</v>
+        <v>0.0007845260972668128</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7567276169521726</v>
+        <v>0.2407503026368438</v>
       </c>
       <c r="J15">
-        <v>0.06241057861817723</v>
+        <v>0.1097173886665104</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5155172967193522</v>
+        <v>0.4688568328060825</v>
       </c>
       <c r="M15">
-        <v>0.4207416752060453</v>
+        <v>0.8223472104273313</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.870363289187026</v>
+        <v>1.517707180234765</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.522787860922278</v>
+        <v>3.923296702166681</v>
       </c>
       <c r="C16">
-        <v>0.3145901021437112</v>
+        <v>0.5788636293539753</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2225201873356539</v>
+        <v>0.07456732186413717</v>
       </c>
       <c r="F16">
-        <v>1.803263568773417</v>
+        <v>1.007256351850216</v>
       </c>
       <c r="G16">
-        <v>0.002439939285456908</v>
+        <v>0.0007873778878001963</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7635151212351197</v>
+        <v>0.2461171343083421</v>
       </c>
       <c r="J16">
-        <v>0.06075851073887151</v>
+        <v>0.104746345124056</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5099507419118368</v>
+        <v>0.4445947672437143</v>
       </c>
       <c r="M16">
-        <v>0.4057565642331227</v>
+        <v>0.7706731364382833</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.882409965956782</v>
+        <v>1.481110240638884</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.473036623588087</v>
+        <v>3.760329943758336</v>
       </c>
       <c r="C17">
-        <v>0.3086501752074753</v>
+        <v>0.560670814818593</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2230027013422866</v>
+        <v>0.07482051264086387</v>
       </c>
       <c r="F17">
-        <v>1.804773742893559</v>
+        <v>0.9884138341711406</v>
       </c>
       <c r="G17">
-        <v>0.002441002670717363</v>
+        <v>0.0007891451576075557</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7678179490365942</v>
+        <v>0.2497713427887547</v>
       </c>
       <c r="J17">
-        <v>0.05974427280484207</v>
+        <v>0.1017030873176168</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5065752690599368</v>
+        <v>0.4298101226333415</v>
       </c>
       <c r="M17">
-        <v>0.396575988758407</v>
+        <v>0.7390706770877316</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.890367567901876</v>
+        <v>1.460348780081802</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.444415729179241</v>
+        <v>3.666724048397953</v>
       </c>
       <c r="C18">
-        <v>0.3052288016466775</v>
+        <v>0.5502178773317326</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2232863504965188</v>
+        <v>0.07497505554057327</v>
       </c>
       <c r="F18">
-        <v>1.80574589832284</v>
+        <v>0.977833996348636</v>
       </c>
       <c r="G18">
-        <v>0.002441622869373832</v>
+        <v>0.0007901683606802929</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.770343823378667</v>
+        <v>0.2520016261917029</v>
       </c>
       <c r="J18">
-        <v>0.05916064941778387</v>
+        <v>0.09995480993469386</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5046483383071063</v>
+        <v>0.4213411356325452</v>
       </c>
       <c r="M18">
-        <v>0.3913002026850165</v>
+        <v>0.7209269016993147</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.895152844398609</v>
+        <v>1.449003440539713</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.434724332553515</v>
+        <v>3.635051460325826</v>
       </c>
       <c r="C19">
-        <v>0.304069550703872</v>
+        <v>0.5466804556048999</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2233834411074529</v>
+        <v>0.07502889933072154</v>
       </c>
       <c r="F19">
-        <v>1.806092836527057</v>
+        <v>0.9742952107596778</v>
       </c>
       <c r="G19">
-        <v>0.002441834331426195</v>
+        <v>0.000790515969709339</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7712077959791763</v>
+        <v>0.2527784132192963</v>
       </c>
       <c r="J19">
-        <v>0.0589630011729696</v>
+        <v>0.0993632198934904</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5039984178834516</v>
+        <v>0.4184794879137428</v>
       </c>
       <c r="M19">
-        <v>0.389514719818429</v>
+        <v>0.7147891566782576</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.896808806546517</v>
+        <v>1.445262194548519</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.478333289531179</v>
+        <v>3.777664452933209</v>
       </c>
       <c r="C20">
-        <v>0.309282997615469</v>
+        <v>0.5626062895593407</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2229507037077703</v>
+        <v>0.07479263439535444</v>
       </c>
       <c r="F20">
-        <v>1.804602265809933</v>
+        <v>0.9903927412723448</v>
       </c>
       <c r="G20">
-        <v>0.002440888585477498</v>
+        <v>0.0007889563376459741</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7673546260963242</v>
+        <v>0.2493689495905933</v>
       </c>
       <c r="J20">
-        <v>0.05985226745269046</v>
+        <v>0.1020268231276305</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5069330892398227</v>
+        <v>0.431380337941917</v>
       </c>
       <c r="M20">
-        <v>0.3975527992861245</v>
+        <v>0.7424313215975928</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.889498906844864</v>
+        <v>1.462496630250428</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.624785941465916</v>
+        <v>4.258454528887455</v>
       </c>
       <c r="C21">
-        <v>0.3267406390342273</v>
+        <v>0.6162582285583369</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2215698259935532</v>
+        <v>0.07410629440459005</v>
       </c>
       <c r="F21">
-        <v>1.80083130889831</v>
+        <v>1.047629885232439</v>
       </c>
       <c r="G21">
-        <v>0.002437813234765628</v>
+        <v>0.0007837951707707568</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7550182031093371</v>
+        <v>0.2394803230903193</v>
       </c>
       <c r="J21">
-        <v>0.06283686728733784</v>
+        <v>0.1110029331002451</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5169666107524051</v>
+        <v>0.4751530120244354</v>
       </c>
       <c r="M21">
-        <v>0.424614245968904</v>
+        <v>0.8357211143932304</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.867428662775609</v>
+        <v>1.527698964105383</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.720441452784826</v>
+        <v>4.574122884683732</v>
       </c>
       <c r="C22">
-        <v>0.3381053162801777</v>
+        <v>0.6514552957351896</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2207216628858379</v>
+        <v>0.07374010672965881</v>
       </c>
       <c r="F22">
-        <v>1.799288930466929</v>
+        <v>1.087552215480613</v>
       </c>
       <c r="G22">
-        <v>0.002435879195652992</v>
+        <v>0.0007804779618017036</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7474108358853861</v>
+        <v>0.234259568071078</v>
       </c>
       <c r="J22">
-        <v>0.0647848534332951</v>
+        <v>0.1168925661087954</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5236523606862136</v>
+        <v>0.5041088140244199</v>
       </c>
       <c r="M22">
-        <v>0.4423393052639213</v>
+        <v>0.8970488163986658</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.854863957184705</v>
+        <v>1.576162043427985</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.669394380660833</v>
+        <v>4.405497248885467</v>
       </c>
       <c r="C23">
-        <v>0.3320439500865007</v>
+        <v>0.6326561233939003</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2211693817008644</v>
+        <v>0.07392786039744692</v>
       </c>
       <c r="F23">
-        <v>1.800027743670668</v>
+        <v>1.06600381185784</v>
       </c>
       <c r="G23">
-        <v>0.002436904505353941</v>
+        <v>0.0007822434992122931</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7514293301963413</v>
+        <v>0.2369273839393813</v>
       </c>
       <c r="J23">
-        <v>0.06374543107812514</v>
+        <v>0.1137468139268947</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5200723777308127</v>
+        <v>0.4886207887062284</v>
       </c>
       <c r="M23">
-        <v>0.432875672458465</v>
+        <v>0.8642811921536406</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.861399602438723</v>
+        <v>1.549733733004274</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.475938723551792</v>
+        <v>3.769827257137763</v>
       </c>
       <c r="C24">
-        <v>0.3089969186212045</v>
+        <v>0.5617312419998655</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2229741923827753</v>
+        <v>0.07480521021151887</v>
       </c>
       <c r="F24">
-        <v>1.804679466846068</v>
+        <v>0.9894972917652893</v>
       </c>
       <c r="G24">
-        <v>0.002440940135898423</v>
+        <v>0.0007890416806655143</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7675639320525924</v>
+        <v>0.2495504694677209</v>
       </c>
       <c r="J24">
-        <v>0.05980344470265919</v>
+        <v>0.1018804580652031</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.506771276131488</v>
+        <v>0.4306703477623017</v>
       </c>
       <c r="M24">
-        <v>0.3971111762140538</v>
+        <v>0.7409118973317632</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.889890973343739</v>
+        <v>1.461523753134486</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.267069733252924</v>
+        <v>3.088908903691049</v>
       </c>
       <c r="C25">
-        <v>0.2839509752973015</v>
+        <v>0.4856348133563984</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2251550558986093</v>
+        <v>0.07609083808259598</v>
       </c>
       <c r="F25">
-        <v>1.813655624748918</v>
+        <v>0.9167222507796708</v>
       </c>
       <c r="G25">
-        <v>0.002445621027913569</v>
+        <v>0.0007966333795233097</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7869170167233293</v>
+        <v>0.2680296481146662</v>
       </c>
       <c r="J25">
-        <v>0.05554157966538753</v>
+        <v>0.08915973051793458</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4929809615317282</v>
+        <v>0.3694706544543749</v>
       </c>
       <c r="M25">
-        <v>0.3587120385928486</v>
+        <v>0.6090734436452507</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.9285833456033</v>
+        <v>1.388896084264445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.590077467982724</v>
+        <v>0.7745621556765343</v>
       </c>
       <c r="C2">
-        <v>0.429783187264178</v>
+        <v>0.1515750888151359</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07731445678112436</v>
+        <v>0.5341058112600408</v>
       </c>
       <c r="F2">
-        <v>0.8704464260960663</v>
+        <v>1.373976330346593</v>
       </c>
       <c r="G2">
-        <v>0.0008024658251661321</v>
+        <v>0.2210843686163386</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001235446944661378</v>
       </c>
       <c r="I2">
-        <v>0.2853445453493144</v>
+        <v>0.0006762172549814593</v>
       </c>
       <c r="J2">
-        <v>0.07983864434523014</v>
+        <v>0.2431341090827743</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2301930715103246</v>
       </c>
       <c r="L2">
-        <v>0.3253386734378694</v>
+        <v>0.04320529239476478</v>
       </c>
       <c r="M2">
-        <v>0.5127408087857432</v>
+        <v>0.8504568545266125</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.352151928757436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6868718109009038</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.9254710194974649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.25289202065602</v>
+        <v>0.6783421615232044</v>
       </c>
       <c r="C3">
-        <v>0.3919666143976315</v>
+        <v>0.1387605521480992</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07830965825761638</v>
+        <v>0.4762909111990155</v>
       </c>
       <c r="F3">
-        <v>0.8431514394959976</v>
+        <v>1.27380448578549</v>
       </c>
       <c r="G3">
-        <v>0.0008065791972145568</v>
+        <v>0.2226956891351932</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002445553529471955</v>
       </c>
       <c r="I3">
-        <v>0.2991761628072211</v>
+        <v>0.001041236637139509</v>
       </c>
       <c r="J3">
-        <v>0.0735396267095112</v>
+        <v>0.2480325634486675</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2379255086781527</v>
       </c>
       <c r="L3">
-        <v>0.2959204078887296</v>
+        <v>0.04027081116127285</v>
       </c>
       <c r="M3">
-        <v>0.4477717406148827</v>
+        <v>0.7502741783805789</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.336486964340153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5996783581296796</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.9388929144141116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.04608475380013</v>
+        <v>0.618963006490219</v>
       </c>
       <c r="C4">
-        <v>0.3687417608373238</v>
+        <v>0.1309961347769217</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07900043261804068</v>
+        <v>0.4408624154222736</v>
       </c>
       <c r="F4">
-        <v>0.828247058158027</v>
+        <v>1.212918414538436</v>
       </c>
       <c r="G4">
-        <v>0.0008091869181984603</v>
+        <v>0.2239928184672166</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003429673220279983</v>
       </c>
       <c r="I4">
-        <v>0.3086366842599801</v>
+        <v>0.001398133587421135</v>
       </c>
       <c r="J4">
-        <v>0.06967788020709875</v>
+        <v>0.2512567594727102</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2429033561439411</v>
       </c>
       <c r="L4">
-        <v>0.2780724885907091</v>
+        <v>0.03844778458907783</v>
       </c>
       <c r="M4">
-        <v>0.4079934830177478</v>
+        <v>0.6886968626839831</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.331057390893676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5462211595710116</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.9482338262231451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.961838735112053</v>
+        <v>0.5943469632666449</v>
       </c>
       <c r="C5">
-        <v>0.3592731855512881</v>
+        <v>0.1281740971816561</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07930167024080337</v>
+        <v>0.4266009400031905</v>
       </c>
       <c r="F5">
-        <v>0.8226186730524034</v>
+        <v>1.187747815405643</v>
       </c>
       <c r="G5">
-        <v>0.0008102706212750821</v>
+        <v>0.2243191202852124</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003889554863535483</v>
       </c>
       <c r="I5">
-        <v>0.3127258687669681</v>
+        <v>0.001646482847017072</v>
       </c>
       <c r="J5">
-        <v>0.06810528028070095</v>
+        <v>0.2524742153441757</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2447803072517498</v>
       </c>
       <c r="L5">
-        <v>0.2708497554866085</v>
+        <v>0.03771202222905146</v>
       </c>
       <c r="M5">
-        <v>0.3918062325160037</v>
+        <v>0.6638625981145054</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.329846519450555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5247097708527946</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.951407724207364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.947850776429675</v>
+        <v>0.5898358926092158</v>
       </c>
       <c r="C6">
-        <v>0.3577005973448735</v>
+        <v>0.1280976535685028</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07935287419465009</v>
+        <v>0.4244322731912291</v>
       </c>
       <c r="F6">
-        <v>0.8217103779393113</v>
+        <v>1.182960495535255</v>
       </c>
       <c r="G6">
-        <v>0.0008104518510440492</v>
+        <v>0.2240400650479124</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003970358501474314</v>
       </c>
       <c r="I6">
-        <v>0.3134187371958497</v>
+        <v>0.001783756188472374</v>
       </c>
       <c r="J6">
-        <v>0.06784420657610113</v>
+        <v>0.2524968811532027</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.244842019326196</v>
       </c>
       <c r="L6">
-        <v>0.2696533702923745</v>
+        <v>0.03760541487545233</v>
       </c>
       <c r="M6">
-        <v>0.3891195637651848</v>
+        <v>0.6600793088644963</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.329704496911376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5214539376820042</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9508519872604353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.044948497240398</v>
+        <v>0.6174835690806049</v>
       </c>
       <c r="C7">
-        <v>0.3686140852693427</v>
+        <v>0.1320275893061194</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0790044156739107</v>
+        <v>0.4412137494754305</v>
       </c>
       <c r="F7">
-        <v>0.8281693761157811</v>
+        <v>1.210896201199489</v>
       </c>
       <c r="G7">
-        <v>0.000809201447761501</v>
+        <v>0.2230764715210256</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003438123904856982</v>
       </c>
       <c r="I7">
-        <v>0.3086908973293774</v>
+        <v>0.001643331541863802</v>
       </c>
       <c r="J7">
-        <v>0.06965666763678158</v>
+        <v>0.2507760263803398</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2422392864778597</v>
       </c>
       <c r="L7">
-        <v>0.2779748807105165</v>
+        <v>0.03848163513210068</v>
       </c>
       <c r="M7">
-        <v>0.4077750914161129</v>
+        <v>0.6892991069319976</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.331037071018713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5467937029689196</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9452827212877466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473751998214652</v>
+        <v>0.7399146861069994</v>
       </c>
       <c r="C8">
-        <v>0.4167433030859229</v>
+        <v>0.1485658950343947</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07764087040875367</v>
+        <v>0.5148782596714341</v>
       </c>
       <c r="F8">
-        <v>0.8606370895109805</v>
+        <v>1.33707892493193</v>
       </c>
       <c r="G8">
-        <v>0.0008038673194983179</v>
+        <v>0.2203663657326658</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001603120953751702</v>
       </c>
       <c r="I8">
-        <v>0.2899069961265361</v>
+        <v>0.001065166933356565</v>
       </c>
       <c r="J8">
-        <v>0.07766528178617449</v>
+        <v>0.2441293234239978</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.231914507139015</v>
       </c>
       <c r="L8">
-        <v>0.3151483740561787</v>
+        <v>0.04225672509753764</v>
       </c>
       <c r="M8">
-        <v>0.4903124532307643</v>
+        <v>0.81718141053247</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.345849415017113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6579364583776268</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.925946429182801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.317786301283718</v>
+        <v>0.9797600661255217</v>
       </c>
       <c r="C9">
-        <v>0.5112295450255999</v>
+        <v>0.1799736312945299</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07561378976131294</v>
+        <v>0.6590999934143866</v>
       </c>
       <c r="F9">
-        <v>0.9400326240960908</v>
+        <v>1.592990080290548</v>
       </c>
       <c r="G9">
-        <v>0.0007940396906449543</v>
+        <v>0.2192731890194324</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.715039978535728E-05</v>
       </c>
       <c r="I9">
-        <v>0.2611985367189718</v>
+        <v>0.0006867279674880322</v>
       </c>
       <c r="J9">
-        <v>0.09343627638712348</v>
+        <v>0.2337470237558392</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2147693974693166</v>
       </c>
       <c r="L9">
-        <v>0.3899290320797775</v>
+        <v>0.04943226150867197</v>
       </c>
       <c r="M9">
-        <v>0.6533481495115723</v>
+        <v>1.06592618890727</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.410593709107559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8751971380403134</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9024837874841154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.941910712163917</v>
+        <v>1.157827140845058</v>
       </c>
       <c r="C10">
-        <v>0.5809411683226529</v>
+        <v>0.20437130710053</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07453964884939168</v>
+        <v>0.7417831841655982</v>
       </c>
       <c r="F10">
-        <v>1.009442074826879</v>
+        <v>1.749974602884762</v>
       </c>
       <c r="G10">
-        <v>0.0007871771272460504</v>
+        <v>0.2168796242610611</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0004338011820439469</v>
       </c>
       <c r="I10">
-        <v>0.2457178947313139</v>
+        <v>0.001307644121329332</v>
       </c>
       <c r="J10">
-        <v>0.1050939039301753</v>
+        <v>0.2255537042546081</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2015903515516744</v>
       </c>
       <c r="L10">
-        <v>0.4462866327418737</v>
+        <v>0.05599141745579672</v>
       </c>
       <c r="M10">
-        <v>0.7742838897396709</v>
+        <v>1.252587098295351</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.483561817552157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.016429005630606</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.8806572997330591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.227220739682195</v>
+        <v>1.27021074655957</v>
       </c>
       <c r="C11">
-        <v>0.6127744894377827</v>
+        <v>0.218233281265853</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07414601531500509</v>
+        <v>0.5831486965023913</v>
       </c>
       <c r="F11">
-        <v>1.043777972953791</v>
+        <v>1.531905053016445</v>
       </c>
       <c r="G11">
-        <v>0.0007841262853735318</v>
+        <v>0.1902998618416945</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01891987443073617</v>
       </c>
       <c r="I11">
-        <v>0.2400502886342686</v>
+        <v>0.002060934260984304</v>
       </c>
       <c r="J11">
-        <v>0.1104200101088892</v>
+        <v>0.2087534655782903</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1826619606344551</v>
       </c>
       <c r="L11">
-        <v>0.4722969533354302</v>
+        <v>0.07644547565624293</v>
       </c>
       <c r="M11">
-        <v>0.8296562490052253</v>
+        <v>1.369174195764629</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.523141789102596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.9155229774602418</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.789271631879501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.335505316854096</v>
+        <v>1.330951204365334</v>
       </c>
       <c r="C12">
-        <v>0.6248513555221962</v>
+        <v>0.2230499439443605</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07401104956186799</v>
+        <v>0.4492131607507588</v>
       </c>
       <c r="F12">
-        <v>1.057208838912388</v>
+        <v>1.330040559550753</v>
       </c>
       <c r="G12">
-        <v>0.00078298063992982</v>
+        <v>0.1707368066124815</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05749383346389436</v>
       </c>
       <c r="I12">
-        <v>0.238115918298103</v>
+        <v>0.002125388723367649</v>
       </c>
       <c r="J12">
-        <v>0.1124408198160154</v>
+        <v>0.1973961025311795</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1713472412095527</v>
       </c>
       <c r="L12">
-        <v>0.4822056782546014</v>
+        <v>0.1001339820379243</v>
       </c>
       <c r="M12">
-        <v>0.8506850729198376</v>
+        <v>1.427916853546861</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.539126463735755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.8048482712788285</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7240560114373267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.312172717588851</v>
+        <v>1.353046623691682</v>
       </c>
       <c r="C13">
-        <v>0.6222493135571767</v>
+        <v>0.2228493764834525</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07403948279677941</v>
+        <v>0.327924961230039</v>
       </c>
       <c r="F13">
-        <v>1.054296672632788</v>
+        <v>1.127026687069772</v>
       </c>
       <c r="G13">
-        <v>0.0007832269557064222</v>
+        <v>0.1538903684400736</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131518716560436</v>
       </c>
       <c r="I13">
-        <v>0.2385228618356798</v>
+        <v>0.001992753287384907</v>
       </c>
       <c r="J13">
-        <v>0.1120054170972082</v>
+        <v>0.188713602328022</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1640441765354241</v>
       </c>
       <c r="L13">
-        <v>0.480068932187109</v>
+        <v>0.1273771375699013</v>
       </c>
       <c r="M13">
-        <v>0.8461532967484473</v>
+        <v>1.446458349973852</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.535638245033709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6823886175370291</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6701231391997453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.23612422728479</v>
+        <v>1.350566549539053</v>
       </c>
       <c r="C14">
-        <v>0.6137675846405273</v>
+        <v>0.2207947101124148</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07413462654369063</v>
+        <v>0.2519594306964308</v>
       </c>
       <c r="F14">
-        <v>1.044874159700797</v>
+        <v>0.9869676727526553</v>
       </c>
       <c r="G14">
-        <v>0.0007840318425092479</v>
+        <v>0.1433403053763485</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624681718291043</v>
       </c>
       <c r="I14">
-        <v>0.2398868166562238</v>
+        <v>0.001897516812418232</v>
       </c>
       <c r="J14">
-        <v>0.110586180853474</v>
+        <v>0.1838174947719402</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1607462846893517</v>
       </c>
       <c r="L14">
-        <v>0.473110930769991</v>
+        <v>0.1488846409382063</v>
       </c>
       <c r="M14">
-        <v>0.8313850359981032</v>
+        <v>1.441479758435946</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.524436415433428</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5931623894740738</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.6374427707841548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.189575443465685</v>
+        <v>1.34092450055428</v>
       </c>
       <c r="C15">
-        <v>0.6085753335039499</v>
+        <v>0.2196898005223744</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07419475370701001</v>
+        <v>0.2340713977829196</v>
       </c>
       <c r="F15">
-        <v>1.039159390488223</v>
+        <v>0.9507984067607538</v>
       </c>
       <c r="G15">
-        <v>0.0007845260972668128</v>
+        <v>0.1409872476789786</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749737067215449</v>
       </c>
       <c r="I15">
-        <v>0.2407503026368438</v>
+        <v>0.001947409918469312</v>
       </c>
       <c r="J15">
-        <v>0.1097173886665104</v>
+        <v>0.183014599545622</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1605373106227299</v>
       </c>
       <c r="L15">
-        <v>0.4688568328060825</v>
+        <v>0.153863753187423</v>
       </c>
       <c r="M15">
-        <v>0.8223472104273313</v>
+        <v>1.431874697072971</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.517707180234765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.568668316390081</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6307404653658111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.923296702166681</v>
+        <v>1.257883574043547</v>
       </c>
       <c r="C16">
-        <v>0.5788636293539753</v>
+        <v>0.2097741326590636</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07456732186413717</v>
+        <v>0.2268979054935372</v>
       </c>
       <c r="F16">
-        <v>1.007256351850216</v>
+        <v>0.9279397719942324</v>
       </c>
       <c r="G16">
-        <v>0.0007873778878001963</v>
+        <v>0.1446725333649646</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622487022336827</v>
       </c>
       <c r="I16">
-        <v>0.2461171343083421</v>
+        <v>0.001779767373291996</v>
       </c>
       <c r="J16">
-        <v>0.104746345124056</v>
+        <v>0.1877657509492536</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1669122085235575</v>
       </c>
       <c r="L16">
-        <v>0.4445947672437143</v>
+        <v>0.144652345397283</v>
       </c>
       <c r="M16">
-        <v>0.7706731364382833</v>
+        <v>1.347166372921606</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.481110240638884</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5369471076138055</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.6483361736110069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.760329943758336</v>
+        <v>1.195670305167397</v>
       </c>
       <c r="C17">
-        <v>0.560670814818593</v>
+        <v>0.2033380402796752</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07482051264086387</v>
+        <v>0.2595804523714449</v>
       </c>
       <c r="F17">
-        <v>0.9884138341711406</v>
+        <v>0.9829279744120498</v>
       </c>
       <c r="G17">
-        <v>0.0007891451576075557</v>
+        <v>0.1530474189668745</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1244852455509857</v>
       </c>
       <c r="I17">
-        <v>0.2497713427887547</v>
+        <v>0.001739724281969224</v>
       </c>
       <c r="J17">
-        <v>0.1017030873176168</v>
+        <v>0.1940207558479585</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1735393934824341</v>
       </c>
       <c r="L17">
-        <v>0.4298101226333415</v>
+        <v>0.1256600031294113</v>
       </c>
       <c r="M17">
-        <v>0.7390706770877316</v>
+        <v>1.285106806727413</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.460348780081802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5589089654758936</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6790942795354269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.666724048397953</v>
+        <v>1.14582476994056</v>
       </c>
       <c r="C18">
-        <v>0.5502178773317326</v>
+        <v>0.1981715287557648</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07497505554057327</v>
+        <v>0.3393610150317699</v>
       </c>
       <c r="F18">
-        <v>0.977833996348636</v>
+        <v>1.119265180904222</v>
       </c>
       <c r="G18">
-        <v>0.0007901683606802929</v>
+        <v>0.1674846429417656</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07161289766761314</v>
       </c>
       <c r="I18">
-        <v>0.2520016261917029</v>
+        <v>0.001493733226725524</v>
       </c>
       <c r="J18">
-        <v>0.09995480993469386</v>
+        <v>0.2027821149643749</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1819202704327756</v>
       </c>
       <c r="L18">
-        <v>0.4213411356325452</v>
+        <v>0.09956215434121418</v>
       </c>
       <c r="M18">
-        <v>0.7209269016993147</v>
+        <v>1.234944603891478</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.449003440539713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6322975576731409</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.7280067748143608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.635051460325826</v>
+        <v>1.107777293018103</v>
       </c>
       <c r="C19">
-        <v>0.5466804556048999</v>
+        <v>0.1966660770709865</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07502889933072154</v>
+        <v>0.4666156502858172</v>
       </c>
       <c r="F19">
-        <v>0.9742952107596778</v>
+        <v>1.320535502577613</v>
       </c>
       <c r="G19">
-        <v>0.000790515969709339</v>
+        <v>0.1853819043004918</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02626891071898996</v>
       </c>
       <c r="I19">
-        <v>0.2527784132192963</v>
+        <v>0.001620816893748156</v>
       </c>
       <c r="J19">
-        <v>0.0993632198934904</v>
+        <v>0.2125863365406531</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1910098708192507</v>
       </c>
       <c r="L19">
-        <v>0.4184794879137428</v>
+        <v>0.07521206145596793</v>
       </c>
       <c r="M19">
-        <v>0.7147891566782576</v>
+        <v>1.200427067603869</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.445262194548519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7488789727981384</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7864852625403529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.777664452933209</v>
+        <v>1.10762384390847</v>
       </c>
       <c r="C20">
-        <v>0.5626062895593407</v>
+        <v>0.2014145825538947</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07479263439535444</v>
+        <v>0.7207298145780641</v>
       </c>
       <c r="F20">
-        <v>0.9903927412723448</v>
+        <v>1.701863250311732</v>
       </c>
       <c r="G20">
-        <v>0.0007889563376459741</v>
+        <v>0.2144926166912313</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002168681158125629</v>
       </c>
       <c r="I20">
-        <v>0.2493689495905933</v>
+        <v>0.001846364690079483</v>
       </c>
       <c r="J20">
-        <v>0.1020268231276305</v>
+        <v>0.2260917607816211</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2029047653852736</v>
       </c>
       <c r="L20">
-        <v>0.431380337941917</v>
+        <v>0.05447394264524164</v>
       </c>
       <c r="M20">
-        <v>0.7424313215975928</v>
+        <v>1.20673879970235</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.462496630250428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9812111114259778</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8766177110681639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.258454528887455</v>
+        <v>1.238874430912858</v>
       </c>
       <c r="C21">
-        <v>0.6162582285583369</v>
+        <v>0.2195571298350245</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07410629440459005</v>
+        <v>0.821678843809849</v>
       </c>
       <c r="F21">
-        <v>1.047629885232439</v>
+        <v>1.878036262632548</v>
       </c>
       <c r="G21">
-        <v>0.0007837951707707568</v>
+        <v>0.2184563659113437</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0008287772436488261</v>
       </c>
       <c r="I21">
-        <v>0.2394803230903193</v>
+        <v>0.002451972648294998</v>
       </c>
       <c r="J21">
-        <v>0.1110029331002451</v>
+        <v>0.2228626541802967</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1960245208117559</v>
       </c>
       <c r="L21">
-        <v>0.4751530120244354</v>
+        <v>0.05742016286399121</v>
       </c>
       <c r="M21">
-        <v>0.8357211143932304</v>
+        <v>1.34428977521705</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.527698964105383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.119817656542082</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.8785681993892496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.574122884683732</v>
+        <v>1.327883161974881</v>
       </c>
       <c r="C22">
-        <v>0.6514552957351896</v>
+        <v>0.2301611826225098</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07374010672965881</v>
+        <v>0.8747913597265011</v>
       </c>
       <c r="F22">
-        <v>1.087552215480613</v>
+        <v>1.978908147892867</v>
       </c>
       <c r="G22">
-        <v>0.0007804779618017036</v>
+        <v>0.221094267172063</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001602190705243478</v>
       </c>
       <c r="I22">
-        <v>0.234259568071078</v>
+        <v>0.002715750020745311</v>
       </c>
       <c r="J22">
-        <v>0.1168925661087954</v>
+        <v>0.2208332177916432</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1918398626836257</v>
       </c>
       <c r="L22">
-        <v>0.5041088140244199</v>
+        <v>0.05995908596503341</v>
       </c>
       <c r="M22">
-        <v>0.8970488163986658</v>
+        <v>1.434724219059916</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.576162043427985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.199515971256858</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.8801060170152653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.405497248885467</v>
+        <v>1.281789416280418</v>
       </c>
       <c r="C23">
-        <v>0.6326561233939003</v>
+        <v>0.2231527750591908</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07392786039744692</v>
+        <v>0.8457655741582784</v>
       </c>
       <c r="F23">
-        <v>1.06600381185784</v>
+        <v>1.926941482938233</v>
       </c>
       <c r="G23">
-        <v>0.0007822434992122931</v>
+        <v>0.2206897770182863</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001160680629058275</v>
       </c>
       <c r="I23">
-        <v>0.2369273839393813</v>
+        <v>0.002268680654835542</v>
       </c>
       <c r="J23">
-        <v>0.1137468139268947</v>
+        <v>0.2224438093193086</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1947955733324616</v>
       </c>
       <c r="L23">
-        <v>0.4886207887062284</v>
+        <v>0.05854867973608791</v>
       </c>
       <c r="M23">
-        <v>0.8642811921536406</v>
+        <v>1.38528703634023</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.549733733004274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.155912883942108</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.8825177042346155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.769827257137763</v>
+        <v>1.10466652489572</v>
       </c>
       <c r="C24">
-        <v>0.5617312419998655</v>
+        <v>0.1990206369539891</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07480521021151887</v>
+        <v>0.7373098910837825</v>
       </c>
       <c r="F24">
-        <v>0.9894972917652893</v>
+        <v>1.72915338639622</v>
       </c>
       <c r="G24">
-        <v>0.0007890416806655143</v>
+        <v>0.2183625170316432</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001204751988865826</v>
       </c>
       <c r="I24">
-        <v>0.2495504694677209</v>
+        <v>0.001370589461244798</v>
       </c>
       <c r="J24">
-        <v>0.1018804580652031</v>
+        <v>0.2281894691908661</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2053731695953918</v>
       </c>
       <c r="L24">
-        <v>0.4306703477623017</v>
+        <v>0.05329169142891743</v>
       </c>
       <c r="M24">
-        <v>0.7409118973317632</v>
+        <v>1.200086598360286</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.461523753134486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9929380198134155</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.8892135418037554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.088908903691049</v>
+        <v>0.9129991953816727</v>
       </c>
       <c r="C25">
-        <v>0.4856348133563984</v>
+        <v>0.1733602310515607</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07609083808259598</v>
+        <v>0.6209729138501103</v>
       </c>
       <c r="F25">
-        <v>0.9167222507796708</v>
+        <v>1.520063442239589</v>
       </c>
       <c r="G25">
-        <v>0.0007966333795233097</v>
+        <v>0.2176420677001758</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002262739836151884</v>
       </c>
       <c r="I25">
-        <v>0.2680296481146662</v>
+        <v>0.001075019689469769</v>
       </c>
       <c r="J25">
-        <v>0.08915973051793458</v>
+        <v>0.2354888293851758</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2180044182501355</v>
       </c>
       <c r="L25">
-        <v>0.3694706544543749</v>
+        <v>0.0475865975313372</v>
       </c>
       <c r="M25">
-        <v>0.6090734436452507</v>
+        <v>1.000383523623981</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.388896084264445</v>
+        <v>0.8178754188580015</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9025161673984599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7745621556765343</v>
+        <v>0.7726079477165229</v>
       </c>
       <c r="C2">
-        <v>0.1515750888151359</v>
+        <v>0.1494751731069073</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5341058112600408</v>
+        <v>0.5403234859836488</v>
       </c>
       <c r="F2">
-        <v>1.373976330346593</v>
+        <v>1.359366699407175</v>
       </c>
       <c r="G2">
-        <v>0.2210843686163386</v>
+        <v>0.193837937430942</v>
       </c>
       <c r="H2">
-        <v>0.001235446944661378</v>
+        <v>0.001137338274374233</v>
       </c>
       <c r="I2">
-        <v>0.0006762172549814593</v>
+        <v>0.0005978206085837101</v>
       </c>
       <c r="J2">
-        <v>0.2431341090827743</v>
+        <v>0.2652135489843559</v>
       </c>
       <c r="K2">
-        <v>0.2301930715103246</v>
+        <v>0.2152777234463557</v>
       </c>
       <c r="L2">
-        <v>0.04320529239476478</v>
+        <v>0.1188441474717106</v>
       </c>
       <c r="M2">
-        <v>0.8504568545266125</v>
+        <v>0.05108982554302699</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.04309455144825058</v>
       </c>
       <c r="O2">
-        <v>0.6868718109009038</v>
+        <v>0.8582429109460179</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9254710194974649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6942701204177055</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8851010884404786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6783421615232044</v>
+        <v>0.6796747046429061</v>
       </c>
       <c r="C3">
-        <v>0.1387605521480992</v>
+        <v>0.1334722906333496</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4762909111990155</v>
+        <v>0.4815640250580273</v>
       </c>
       <c r="F3">
-        <v>1.27380448578549</v>
+        <v>1.26270358122521</v>
       </c>
       <c r="G3">
-        <v>0.2226956891351932</v>
+        <v>0.197117346989522</v>
       </c>
       <c r="H3">
-        <v>0.002445553529471955</v>
+        <v>0.002280317797121345</v>
       </c>
       <c r="I3">
-        <v>0.001041236637139509</v>
+        <v>0.0007752811581234198</v>
       </c>
       <c r="J3">
-        <v>0.2480325634486675</v>
+        <v>0.2686589160109634</v>
       </c>
       <c r="K3">
-        <v>0.2379255086781527</v>
+        <v>0.2231018945510197</v>
       </c>
       <c r="L3">
-        <v>0.04027081116127285</v>
+        <v>0.1240578020410616</v>
       </c>
       <c r="M3">
-        <v>0.7502741783805789</v>
+        <v>0.05322350194222114</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.03998992879211194</v>
       </c>
       <c r="O3">
-        <v>0.5996783581296796</v>
+        <v>0.7559530634789127</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9388929144141116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6050203572843103</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9014450611119713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.618963006490219</v>
+        <v>0.6222403684257074</v>
       </c>
       <c r="C4">
-        <v>0.1309961347769217</v>
+        <v>0.1238324397231878</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4408624154222736</v>
+        <v>0.4455922236651233</v>
       </c>
       <c r="F4">
-        <v>1.212918414538436</v>
+        <v>1.203878237477724</v>
       </c>
       <c r="G4">
-        <v>0.2239928184672166</v>
+        <v>0.1994394388275431</v>
       </c>
       <c r="H4">
-        <v>0.003429673220279983</v>
+        <v>0.003213675802616112</v>
       </c>
       <c r="I4">
-        <v>0.001398133587421135</v>
+        <v>0.0009974753300694417</v>
       </c>
       <c r="J4">
-        <v>0.2512567594727102</v>
+        <v>0.270868191387482</v>
       </c>
       <c r="K4">
-        <v>0.2429033561439411</v>
+        <v>0.2280862237207568</v>
       </c>
       <c r="L4">
-        <v>0.03844778458907783</v>
+        <v>0.1274858037843565</v>
       </c>
       <c r="M4">
-        <v>0.6886968626839831</v>
+        <v>0.0549464443961809</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0380677647580967</v>
       </c>
       <c r="O4">
-        <v>0.5462211595710116</v>
+        <v>0.6931268079749771</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9482338262231451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5503394335398681</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.9123595732262473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5943469632666449</v>
+        <v>0.5984055837967333</v>
       </c>
       <c r="C5">
-        <v>0.1281740971816561</v>
+        <v>0.1202714032554439</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4266009400031905</v>
+        <v>0.4311158067797862</v>
       </c>
       <c r="F5">
-        <v>1.187747815405643</v>
+        <v>1.17953570257022</v>
       </c>
       <c r="G5">
-        <v>0.2243191202852124</v>
+        <v>0.2001981875660128</v>
       </c>
       <c r="H5">
-        <v>0.003889554863535483</v>
+        <v>0.003650529536512792</v>
       </c>
       <c r="I5">
-        <v>0.001646482847017072</v>
+        <v>0.001198340491622929</v>
       </c>
       <c r="J5">
-        <v>0.2524742153441757</v>
+        <v>0.271640032288321</v>
       </c>
       <c r="K5">
-        <v>0.2447803072517498</v>
+        <v>0.2299654168278984</v>
       </c>
       <c r="L5">
-        <v>0.03771202222905146</v>
+        <v>0.128817579885526</v>
       </c>
       <c r="M5">
-        <v>0.6638625981145054</v>
+        <v>0.05572503968864062</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0372931355814039</v>
       </c>
       <c r="O5">
-        <v>0.5247097708527946</v>
+        <v>0.6677912687210181</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.951407724207364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5283351132255945</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9161535399515728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5898358926092158</v>
+        <v>0.5940313917684534</v>
       </c>
       <c r="C6">
-        <v>0.1280976535685028</v>
+        <v>0.1200796758003122</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4244322731912291</v>
+        <v>0.4289086132521902</v>
       </c>
       <c r="F6">
-        <v>1.182960495535255</v>
+        <v>1.174898559591156</v>
       </c>
       <c r="G6">
-        <v>0.2240400650479124</v>
+        <v>0.200009495115431</v>
       </c>
       <c r="H6">
-        <v>0.003970358501474314</v>
+        <v>0.003727310964507402</v>
       </c>
       <c r="I6">
-        <v>0.001783756188472374</v>
+        <v>0.001343741664408427</v>
       </c>
       <c r="J6">
-        <v>0.2524968811532027</v>
+        <v>0.27158456281553</v>
       </c>
       <c r="K6">
-        <v>0.244842019326196</v>
+        <v>0.2300415524565977</v>
       </c>
       <c r="L6">
-        <v>0.03760541487545233</v>
+        <v>0.1288940570960975</v>
       </c>
       <c r="M6">
-        <v>0.6600793088644963</v>
+        <v>0.05582737521383563</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03718040412412904</v>
       </c>
       <c r="O6">
-        <v>0.5214539376820042</v>
+        <v>0.6639203779804177</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9508519872604353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5249927907463032</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.9157385931471183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6174835690806049</v>
+        <v>0.6208498806840055</v>
       </c>
       <c r="C7">
-        <v>0.1320275893061194</v>
+        <v>0.1246945249418872</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4412137494754305</v>
+        <v>0.4463316844756164</v>
       </c>
       <c r="F7">
-        <v>1.210896201199489</v>
+        <v>1.201014877523363</v>
       </c>
       <c r="G7">
-        <v>0.2230764715210256</v>
+        <v>0.200044589524591</v>
       </c>
       <c r="H7">
-        <v>0.003438123904856982</v>
+        <v>0.003223547614112032</v>
       </c>
       <c r="I7">
-        <v>0.001643331541863802</v>
+        <v>0.001285763817421071</v>
       </c>
       <c r="J7">
-        <v>0.2507760263803398</v>
+        <v>0.267984467296742</v>
       </c>
       <c r="K7">
-        <v>0.2422392864778597</v>
+        <v>0.2272263972983311</v>
       </c>
       <c r="L7">
-        <v>0.03848163513210068</v>
+        <v>0.1269726815092689</v>
       </c>
       <c r="M7">
-        <v>0.6892991069319976</v>
+        <v>0.05481456400585527</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.03812828411496128</v>
       </c>
       <c r="O7">
-        <v>0.5467937029689196</v>
+        <v>0.693459647565291</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9452827212877466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5511615773711114</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.9078832924154838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7399146861069994</v>
+        <v>0.7393314484958182</v>
       </c>
       <c r="C8">
-        <v>0.1485658950343947</v>
+        <v>0.1447871656065445</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5148782596714341</v>
+        <v>0.5220959984300464</v>
       </c>
       <c r="F8">
-        <v>1.33707892493193</v>
+        <v>1.320796774368006</v>
       </c>
       <c r="G8">
-        <v>0.2203663657326658</v>
+        <v>0.1986668553456781</v>
       </c>
       <c r="H8">
-        <v>0.001603120953751702</v>
+        <v>0.001487645457243891</v>
       </c>
       <c r="I8">
-        <v>0.001065166933356565</v>
+        <v>0.0009819169708435993</v>
       </c>
       <c r="J8">
-        <v>0.2441293234239978</v>
+        <v>0.2581122839812373</v>
       </c>
       <c r="K8">
-        <v>0.231914507139015</v>
+        <v>0.2163525888180704</v>
       </c>
       <c r="L8">
-        <v>0.04225672509753764</v>
+        <v>0.1197584539324907</v>
       </c>
       <c r="M8">
-        <v>0.81718141053247</v>
+        <v>0.05137055010907954</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.04217960239119556</v>
       </c>
       <c r="O8">
-        <v>0.6579364583776268</v>
+        <v>0.8233854132083991</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.925946429182801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6655052929211394</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.881433966783149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9797600661255217</v>
+        <v>0.9705782925597646</v>
       </c>
       <c r="C9">
-        <v>0.1799736312945299</v>
+        <v>0.1844162191242873</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6590999934143866</v>
+        <v>0.6692833121686448</v>
       </c>
       <c r="F9">
-        <v>1.592990080290548</v>
+        <v>1.566556662820389</v>
       </c>
       <c r="G9">
-        <v>0.2192731890194324</v>
+        <v>0.1947011010758999</v>
       </c>
       <c r="H9">
-        <v>3.715039978535728E-05</v>
+        <v>2.802483946595657E-05</v>
       </c>
       <c r="I9">
-        <v>0.0006867279674880322</v>
+        <v>0.0008984722030662695</v>
       </c>
       <c r="J9">
-        <v>0.2337470237558392</v>
+        <v>0.2486788694700479</v>
       </c>
       <c r="K9">
-        <v>0.2147693974693166</v>
+        <v>0.198486999484583</v>
       </c>
       <c r="L9">
-        <v>0.04943226150867197</v>
+        <v>0.1085072220506049</v>
       </c>
       <c r="M9">
-        <v>1.06592618890727</v>
+        <v>0.04832210174267271</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.04983859853582295</v>
       </c>
       <c r="O9">
-        <v>0.8751971380403134</v>
+        <v>1.07739150568429</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9024837874841154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8883773804010033</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.847933104014345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.157827140845058</v>
+        <v>1.142581125514369</v>
       </c>
       <c r="C10">
-        <v>0.20437130710053</v>
+        <v>0.2139010538336521</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7417831841655982</v>
+        <v>0.7563620291293205</v>
       </c>
       <c r="F10">
-        <v>1.749974602884762</v>
+        <v>1.711269319674216</v>
       </c>
       <c r="G10">
-        <v>0.2168796242610611</v>
+        <v>0.1994159969440048</v>
       </c>
       <c r="H10">
-        <v>0.0004338011820439469</v>
+        <v>0.0004423149757606382</v>
       </c>
       <c r="I10">
-        <v>0.001307644121329332</v>
+        <v>0.001631695656830523</v>
       </c>
       <c r="J10">
-        <v>0.2255537042546081</v>
+        <v>0.2291807435985795</v>
       </c>
       <c r="K10">
-        <v>0.2015903515516744</v>
+        <v>0.1837262835066102</v>
       </c>
       <c r="L10">
-        <v>0.05599141745579672</v>
+        <v>0.1004612878669873</v>
       </c>
       <c r="M10">
-        <v>1.252587098295351</v>
+        <v>0.04701229630008008</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.0570811573076746</v>
       </c>
       <c r="O10">
-        <v>1.016429005630606</v>
+        <v>1.266362313476407</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.8806572997330591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.035098251663868</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8100404319982886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.27021074655957</v>
+        <v>1.255415217662289</v>
       </c>
       <c r="C11">
-        <v>0.218233281265853</v>
+        <v>0.2255898681698483</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5831486965023913</v>
+        <v>0.5998624555051535</v>
       </c>
       <c r="F11">
-        <v>1.531905053016445</v>
+        <v>1.487077705686218</v>
       </c>
       <c r="G11">
-        <v>0.1902998618416945</v>
+        <v>0.1929737901356958</v>
       </c>
       <c r="H11">
-        <v>0.01891987443073617</v>
+        <v>0.01891954453875044</v>
       </c>
       <c r="I11">
-        <v>0.002060934260984304</v>
+        <v>0.002475818989912781</v>
       </c>
       <c r="J11">
-        <v>0.2087534655782903</v>
+        <v>0.1983036167597731</v>
       </c>
       <c r="K11">
-        <v>0.1826619606344551</v>
+        <v>0.1656907908997223</v>
       </c>
       <c r="L11">
-        <v>0.07644547565624293</v>
+        <v>0.09353554590957369</v>
       </c>
       <c r="M11">
-        <v>1.369174195764629</v>
+        <v>0.04151589121924637</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.07961001007873847</v>
       </c>
       <c r="O11">
-        <v>0.9155229774602418</v>
+        <v>1.379247288827457</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.789271631879501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.935717835754005</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.710452554453795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.330951204365334</v>
+        <v>1.317723392650322</v>
       </c>
       <c r="C12">
-        <v>0.2230499439443605</v>
+        <v>0.2279370846838304</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4492131607507588</v>
+        <v>0.4648449553600784</v>
       </c>
       <c r="F12">
-        <v>1.330040559550753</v>
+        <v>1.286325433919302</v>
       </c>
       <c r="G12">
-        <v>0.1707368066124815</v>
+        <v>0.1820274998920937</v>
       </c>
       <c r="H12">
-        <v>0.05749383346389436</v>
+        <v>0.05749207106362064</v>
       </c>
       <c r="I12">
-        <v>0.002125388723367649</v>
+        <v>0.002529643087467726</v>
       </c>
       <c r="J12">
-        <v>0.1973961025311795</v>
+        <v>0.1870851610907494</v>
       </c>
       <c r="K12">
-        <v>0.1713472412095527</v>
+        <v>0.1561758259217267</v>
       </c>
       <c r="L12">
-        <v>0.1001339820379243</v>
+        <v>0.09043064790662614</v>
       </c>
       <c r="M12">
-        <v>1.427916853546861</v>
+        <v>0.03791853105702181</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1049503628369806</v>
       </c>
       <c r="O12">
-        <v>0.8048482712788285</v>
+        <v>1.435112024732177</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7240560114373267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.8240857949782097</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6479018159488277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.353046623691682</v>
+        <v>1.342206972332121</v>
       </c>
       <c r="C13">
-        <v>0.2228493764834525</v>
+        <v>0.2255330728334144</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.327924961230039</v>
+        <v>0.3399347598453417</v>
       </c>
       <c r="F13">
-        <v>1.127026687069772</v>
+        <v>1.09088645653425</v>
       </c>
       <c r="G13">
-        <v>0.1538903684400736</v>
+        <v>0.1624113413315271</v>
       </c>
       <c r="H13">
-        <v>0.1131518716560436</v>
+        <v>0.1131517066881145</v>
       </c>
       <c r="I13">
-        <v>0.001992753287384907</v>
+        <v>0.002393124859257689</v>
       </c>
       <c r="J13">
-        <v>0.188713602328022</v>
+        <v>0.1852736701939524</v>
       </c>
       <c r="K13">
-        <v>0.1640441765354241</v>
+        <v>0.151504632526442</v>
       </c>
       <c r="L13">
-        <v>0.1273771375699013</v>
+        <v>0.08918677345885317</v>
       </c>
       <c r="M13">
-        <v>1.446458349973852</v>
+        <v>0.0354402920152026</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1329346191027696</v>
       </c>
       <c r="O13">
-        <v>0.6823886175370291</v>
+        <v>1.451982553144035</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6701231391997453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6983560999039824</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6065504710536516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.350566549539053</v>
+        <v>1.341781649862355</v>
       </c>
       <c r="C14">
-        <v>0.2207947101124148</v>
+        <v>0.2220540062987055</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2519594306964308</v>
+        <v>0.260836476756019</v>
       </c>
       <c r="F14">
-        <v>0.9869676727526553</v>
+        <v>0.958237551775909</v>
       </c>
       <c r="G14">
-        <v>0.1433403053763485</v>
+        <v>0.1459016963297728</v>
       </c>
       <c r="H14">
-        <v>0.1624681718291043</v>
+        <v>0.1624677550533562</v>
       </c>
       <c r="I14">
-        <v>0.001897516812418232</v>
+        <v>0.002311082337829617</v>
       </c>
       <c r="J14">
-        <v>0.1838174947719402</v>
+        <v>0.186797483090146</v>
       </c>
       <c r="K14">
-        <v>0.1607462846893517</v>
+        <v>0.1501709735851948</v>
       </c>
       <c r="L14">
-        <v>0.1488846409382063</v>
+        <v>0.08895130891439396</v>
       </c>
       <c r="M14">
-        <v>1.441479758435946</v>
+        <v>0.03423312900979791</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1543135724411826</v>
       </c>
       <c r="O14">
-        <v>0.5931623894740738</v>
+        <v>1.446364031348395</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.6374427707841548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6060396220374002</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5858657902194295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.34092450055428</v>
+        <v>1.332816132708132</v>
       </c>
       <c r="C15">
-        <v>0.2196898005223744</v>
+        <v>0.2206490155581093</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2340713977829196</v>
+        <v>0.2419265684213272</v>
       </c>
       <c r="F15">
-        <v>0.9507984067607538</v>
+        <v>0.9248172356945901</v>
       </c>
       <c r="G15">
-        <v>0.1409872476789786</v>
+        <v>0.1405455453178206</v>
       </c>
       <c r="H15">
-        <v>0.1749737067215449</v>
+        <v>0.174972411568362</v>
       </c>
       <c r="I15">
-        <v>0.001947409918469312</v>
+        <v>0.002386233804507754</v>
       </c>
       <c r="J15">
-        <v>0.183014599545622</v>
+        <v>0.1884481252046584</v>
       </c>
       <c r="K15">
-        <v>0.1605373106227299</v>
+        <v>0.1505324614174097</v>
       </c>
       <c r="L15">
-        <v>0.153863753187423</v>
+        <v>0.08911361846956556</v>
       </c>
       <c r="M15">
-        <v>1.431874697072971</v>
+        <v>0.03410172763198815</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1589966270883139</v>
       </c>
       <c r="O15">
-        <v>0.568668316390081</v>
+        <v>1.436832052173287</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.6307404653658111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5804265280401282</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5835514999931561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.257883574043547</v>
+        <v>1.251352830746498</v>
       </c>
       <c r="C16">
-        <v>0.2097741326590636</v>
+        <v>0.2108425917969754</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2268979054935372</v>
+        <v>0.2321479248436944</v>
       </c>
       <c r="F16">
-        <v>0.9279397719942324</v>
+        <v>0.9104559817877629</v>
       </c>
       <c r="G16">
-        <v>0.1446725333649646</v>
+        <v>0.1316398759358925</v>
       </c>
       <c r="H16">
-        <v>0.1622487022336827</v>
+        <v>0.1622368979061122</v>
       </c>
       <c r="I16">
-        <v>0.001779767373291996</v>
+        <v>0.002231068259602509</v>
       </c>
       <c r="J16">
-        <v>0.1877657509492536</v>
+        <v>0.2031331313912936</v>
       </c>
       <c r="K16">
-        <v>0.1669122085235575</v>
+        <v>0.1576702530066818</v>
       </c>
       <c r="L16">
-        <v>0.144652345397283</v>
+        <v>0.09155647617410811</v>
       </c>
       <c r="M16">
-        <v>1.347166372921606</v>
+        <v>0.03587000237983329</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1478435604272974</v>
       </c>
       <c r="O16">
-        <v>0.5369471076138055</v>
+        <v>1.353950639359823</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.6483361736110069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5453937427249116</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6137560940377895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.195670305167397</v>
+        <v>1.189355000445318</v>
       </c>
       <c r="C17">
-        <v>0.2033380402796752</v>
+        <v>0.2049291671758908</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2595804523714449</v>
+        <v>0.2643101709969997</v>
       </c>
       <c r="F17">
-        <v>0.9829279744120498</v>
+        <v>0.9677939736063053</v>
       </c>
       <c r="G17">
-        <v>0.1530474189668745</v>
+        <v>0.1345531698225102</v>
       </c>
       <c r="H17">
-        <v>0.1244852455509857</v>
+        <v>0.1244643663472402</v>
       </c>
       <c r="I17">
-        <v>0.001739724281969224</v>
+        <v>0.002189780217418225</v>
       </c>
       <c r="J17">
-        <v>0.1940207558479585</v>
+        <v>0.2145136219492514</v>
       </c>
       <c r="K17">
-        <v>0.1735393934824341</v>
+        <v>0.1639741004849498</v>
       </c>
       <c r="L17">
-        <v>0.1256600031294113</v>
+        <v>0.09387012766410274</v>
       </c>
       <c r="M17">
-        <v>1.285106806727413</v>
+        <v>0.03774117050116654</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1279212954785294</v>
       </c>
       <c r="O17">
-        <v>0.5589089654758936</v>
+        <v>1.293169968375878</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6790942795354269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5665795535163483</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6474658831567766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.14582476994056</v>
+        <v>1.138465892987568</v>
       </c>
       <c r="C18">
-        <v>0.1981715287557648</v>
+        <v>0.2010665683148147</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3393610150317699</v>
+        <v>0.3447607323872433</v>
       </c>
       <c r="F18">
-        <v>1.119265180904222</v>
+        <v>1.10288292645626</v>
       </c>
       <c r="G18">
-        <v>0.1674846429417656</v>
+        <v>0.1454782761927689</v>
       </c>
       <c r="H18">
-        <v>0.07161289766761314</v>
+        <v>0.07159080518751182</v>
       </c>
       <c r="I18">
-        <v>0.001493733226725524</v>
+        <v>0.001892547460721872</v>
       </c>
       <c r="J18">
-        <v>0.2027821149643749</v>
+        <v>0.2251569816675563</v>
       </c>
       <c r="K18">
-        <v>0.1819202704327756</v>
+        <v>0.1711877077856379</v>
       </c>
       <c r="L18">
-        <v>0.09956215434121418</v>
+        <v>0.09665220692702725</v>
       </c>
       <c r="M18">
-        <v>1.234944603891478</v>
+        <v>0.04015783199121703</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1013253692713576</v>
       </c>
       <c r="O18">
-        <v>0.6322975576731409</v>
+        <v>1.244534996396879</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7280067748143608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6408177113027733</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.693574186478763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.107777293018103</v>
+        <v>1.098505186334279</v>
       </c>
       <c r="C19">
-        <v>0.1966660770709865</v>
+        <v>0.2016076061008647</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4666156502858172</v>
+        <v>0.4736134623427262</v>
       </c>
       <c r="F19">
-        <v>1.320535502577613</v>
+        <v>1.300361956780762</v>
       </c>
       <c r="G19">
-        <v>0.1853819043004918</v>
+        <v>0.160590849256927</v>
       </c>
       <c r="H19">
-        <v>0.02626891071898996</v>
+        <v>0.02625536664723427</v>
       </c>
       <c r="I19">
-        <v>0.001620816893748156</v>
+        <v>0.002047267355535176</v>
       </c>
       <c r="J19">
-        <v>0.2125863365406531</v>
+        <v>0.2347411660844934</v>
       </c>
       <c r="K19">
-        <v>0.1910098708192507</v>
+        <v>0.1785292435863308</v>
       </c>
       <c r="L19">
-        <v>0.07521206145596793</v>
+        <v>0.09951652074457762</v>
       </c>
       <c r="M19">
-        <v>1.200427067603869</v>
+        <v>0.04281161999503524</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0765822630804962</v>
       </c>
       <c r="O19">
-        <v>0.7488789727981384</v>
+        <v>1.211794125089853</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7864852625403529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7594399863404817</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7454914402843826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.10762384390847</v>
+        <v>1.093897427680275</v>
       </c>
       <c r="C20">
-        <v>0.2014145825538947</v>
+        <v>0.2104615766738931</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.7207298145780641</v>
+        <v>0.732635294398321</v>
       </c>
       <c r="F20">
-        <v>1.701863250311732</v>
+        <v>1.669776187721936</v>
       </c>
       <c r="G20">
-        <v>0.2144926166912313</v>
+        <v>0.189887223996358</v>
       </c>
       <c r="H20">
-        <v>0.0002168681158125629</v>
+        <v>0.0002260931351463213</v>
       </c>
       <c r="I20">
-        <v>0.001846364690079483</v>
+        <v>0.002312047809464701</v>
       </c>
       <c r="J20">
-        <v>0.2260917607816211</v>
+        <v>0.240003592421445</v>
       </c>
       <c r="K20">
-        <v>0.2029047653852736</v>
+        <v>0.1865032483240068</v>
       </c>
       <c r="L20">
-        <v>0.05447394264524164</v>
+        <v>0.1020881234156352</v>
       </c>
       <c r="M20">
-        <v>1.20673879970235</v>
+        <v>0.04684620166713849</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.05527835331912812</v>
       </c>
       <c r="O20">
-        <v>0.9812111114259778</v>
+        <v>1.220770415189094</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8766177110681639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9973897229805075</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.816627052830782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.238874430912858</v>
+        <v>1.221063889355321</v>
       </c>
       <c r="C21">
-        <v>0.2195571298350245</v>
+        <v>0.2294013549959288</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.821678843809849</v>
+        <v>0.8456819577534276</v>
       </c>
       <c r="F21">
-        <v>1.878036262632548</v>
+        <v>1.818037261792739</v>
       </c>
       <c r="G21">
-        <v>0.2184563659113437</v>
+        <v>0.2297577296990312</v>
       </c>
       <c r="H21">
-        <v>0.0008287772436488261</v>
+        <v>0.000819104297260731</v>
       </c>
       <c r="I21">
-        <v>0.002451972648294998</v>
+        <v>0.002900949660493701</v>
       </c>
       <c r="J21">
-        <v>0.2228626541802967</v>
+        <v>0.1984246349096992</v>
       </c>
       <c r="K21">
-        <v>0.1960245208117559</v>
+        <v>0.1740136223751545</v>
       </c>
       <c r="L21">
-        <v>0.05742016286399121</v>
+        <v>0.09604170519785082</v>
       </c>
       <c r="M21">
-        <v>1.34428977521705</v>
+        <v>0.04558940244997522</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.05917404470624987</v>
       </c>
       <c r="O21">
-        <v>1.119817656542082</v>
+        <v>1.355680324118197</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.8785681993892496</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.146247320504003</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.7748111060896434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.327883161974881</v>
+        <v>1.307578869666401</v>
       </c>
       <c r="C22">
-        <v>0.2301611826225098</v>
+        <v>0.2400549760589001</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8747913597265011</v>
+        <v>0.9074732812721464</v>
       </c>
       <c r="F22">
-        <v>1.978908147892867</v>
+        <v>1.899257249924503</v>
       </c>
       <c r="G22">
-        <v>0.221094267172063</v>
+        <v>0.2621309373005403</v>
       </c>
       <c r="H22">
-        <v>0.001602190705243478</v>
+        <v>0.001557931032232673</v>
       </c>
       <c r="I22">
-        <v>0.002715750020745311</v>
+        <v>0.003046748860308313</v>
       </c>
       <c r="J22">
-        <v>0.2208332177916432</v>
+        <v>0.1803471657912246</v>
       </c>
       <c r="K22">
-        <v>0.1918398626836257</v>
+        <v>0.1659470450192941</v>
       </c>
       <c r="L22">
-        <v>0.05995908596503341</v>
+        <v>0.09245421887485517</v>
       </c>
       <c r="M22">
-        <v>1.434724219059916</v>
+        <v>0.04490847522517072</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.06246083178679385</v>
       </c>
       <c r="O22">
-        <v>1.199515971256858</v>
+        <v>1.443872651454427</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.8801060170152653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.233045765666546</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.7457606306631135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.281789416280418</v>
+        <v>1.262608075302268</v>
       </c>
       <c r="C23">
-        <v>0.2231527750591908</v>
+        <v>0.2334562624057668</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.8457655741582784</v>
+        <v>0.8726404826323062</v>
       </c>
       <c r="F23">
-        <v>1.926941482938233</v>
+        <v>1.860127914075193</v>
       </c>
       <c r="G23">
-        <v>0.2206897770182863</v>
+        <v>0.2408175475732364</v>
       </c>
       <c r="H23">
-        <v>0.001160680629058275</v>
+        <v>0.001138460254042295</v>
       </c>
       <c r="I23">
-        <v>0.002268680654835542</v>
+        <v>0.002607559251584846</v>
       </c>
       <c r="J23">
-        <v>0.2224438093193086</v>
+        <v>0.1915278700184277</v>
       </c>
       <c r="K23">
-        <v>0.1947955733324616</v>
+        <v>0.1713180996719235</v>
       </c>
       <c r="L23">
-        <v>0.05854867973608791</v>
+        <v>0.0946533569140886</v>
       </c>
       <c r="M23">
-        <v>1.38528703634023</v>
+        <v>0.04575909706676384</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.06055161181373592</v>
       </c>
       <c r="O23">
-        <v>1.155912883942108</v>
+        <v>1.396318919859567</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.8825177042346155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.184889593123401</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.7680051599229643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.10466652489572</v>
+        <v>1.090728931837617</v>
       </c>
       <c r="C24">
-        <v>0.1990206369539891</v>
+        <v>0.2081380169220068</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7373098910837825</v>
+        <v>0.7493913519855084</v>
       </c>
       <c r="F24">
-        <v>1.72915338639622</v>
+        <v>1.69662136627052</v>
       </c>
       <c r="G24">
-        <v>0.2183625170316432</v>
+        <v>0.1931338549520802</v>
       </c>
       <c r="H24">
-        <v>0.0001204751988865826</v>
+        <v>0.0001306625499373215</v>
       </c>
       <c r="I24">
-        <v>0.001370589461244798</v>
+        <v>0.001737517140767864</v>
       </c>
       <c r="J24">
-        <v>0.2281894691908661</v>
+        <v>0.2422104311734614</v>
       </c>
       <c r="K24">
-        <v>0.2053731695953918</v>
+        <v>0.1885902621324966</v>
       </c>
       <c r="L24">
-        <v>0.05329169142891743</v>
+        <v>0.1028819151413414</v>
       </c>
       <c r="M24">
-        <v>1.200086598360286</v>
+        <v>0.04761712485750991</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.0539955091713189</v>
       </c>
       <c r="O24">
-        <v>0.9929380198134155</v>
+        <v>1.214316476847841</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.8892135418037554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.009338552998202</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8281674120304245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9129991953816727</v>
+        <v>0.9061835262004081</v>
       </c>
       <c r="C25">
-        <v>0.1733602310515607</v>
+        <v>0.1758716956200601</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6209729138501103</v>
+        <v>0.6297250593497097</v>
       </c>
       <c r="F25">
-        <v>1.520063442239589</v>
+        <v>1.497816966489111</v>
       </c>
       <c r="G25">
-        <v>0.2176420677001758</v>
+        <v>0.1918235244021744</v>
       </c>
       <c r="H25">
-        <v>0.0002262739836151884</v>
+        <v>0.0001972141501358493</v>
       </c>
       <c r="I25">
-        <v>0.001075019689469769</v>
+        <v>0.001309440063559819</v>
       </c>
       <c r="J25">
-        <v>0.2354888293851758</v>
+        <v>0.2534778961901338</v>
       </c>
       <c r="K25">
-        <v>0.2180044182501355</v>
+        <v>0.2024143217350289</v>
       </c>
       <c r="L25">
-        <v>0.0475865975313372</v>
+        <v>0.1110333143890347</v>
       </c>
       <c r="M25">
-        <v>1.000383523623981</v>
+        <v>0.04855279812136626</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.04782316994143798</v>
       </c>
       <c r="O25">
-        <v>0.8178754188580015</v>
+        <v>1.010732760807599</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9025161673984599</v>
+        <v>0.829094499134591</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8535163222302771</v>
       </c>
     </row>
   </sheetData>
